--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yak1mara\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Чек лист" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Тест кейсы" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Тест-кейсы 2.0" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Баг-репорты" sheetId="4" r:id="rId7"/>
+    <sheet name="Чек лист" sheetId="1" r:id="rId1"/>
+    <sheet name="Тест кейсы" sheetId="2" r:id="rId2"/>
+    <sheet name="Тест-кейсы 2.0" sheetId="3" r:id="rId3"/>
+    <sheet name="Баг-репорты" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="181">
   <si>
     <t>Название</t>
   </si>
@@ -268,6 +276,9 @@
   </si>
   <si>
     <t>Вывод</t>
+  </si>
+  <si>
+    <t>Дополнительно</t>
   </si>
   <si>
     <t>ТЗ</t>
@@ -475,6 +486,45 @@
     <t>Проверка выполнена, разбаненный пользователь проходит авторизацию</t>
   </si>
   <si>
+    <t>Проверка регистрации пользователя</t>
+  </si>
+  <si>
+    <t>Mar 5, 2024</t>
+  </si>
+  <si>
+    <t>Находиться на сайте localhost:8080 и не быть авторизованным</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт localhost:8080
+2. Нажать на кнопку Регистрация
+3. Заполнить поля ввода данными
+4. Нажать на кнопку Зарегистрироваться</t>
+  </si>
+  <si>
+    <t>1. Откроется главная страница сайта
+2. Откроется страница с регистрацией пользователя
+3. Поля для ввода заполнены
+4. Успешная регистрация</t>
+  </si>
+  <si>
+    <t>Проверка выполнена, регистрация прошла успешно</t>
+  </si>
+  <si>
+    <t>1. Поле Фамилия: не пустое, только кириллица, до 50 символов
+2. Поле Имя: не пустое, только кириллица, до 25 символов
+3. Поле Отчество: может быть пустым, только кириллица до 25 символов
+4. Поле E-mail: не пустое, формат ввода адресов, должен содержать @, рядом с этим полем поясняющий текст "На этот адрес будет отправлено письмо для подтверждения"
+5. Поле Ник: не пустое, кириллица и латиница, кроме знаков математических действий и спецсимволов, должно быть уникальным
+6. Поле Пароль: не пустое, не менее 8 символов, не менее 1 заглавной буквы, хотя бы 1 цифру, без спецсимволов
+7. Поле Аватар: возможность загрузить аватарку для отображения
+8. Поле Индекс: не пустое, 6 цифр
+9. Поле Город: не пустое, только кириллица, до 15 символов
+10. Поле Улица: не пустое, только кириллица, знак тире, до 25 символов
+11. Поле Номер Дома: не пустое, цифры, возможна 1 буква (кириллица), до 5 символов
+12. Поле Номер Строения: может быть пустым, 1 буква (кириллица) и число, до 2 знаков
+13. Поле Номер Квартиры: может быть пустым, до 3 знаков</t>
+  </si>
+  <si>
     <t>Кртакое описание</t>
   </si>
   <si>
@@ -511,7 +561,7 @@
     <t>P1</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>Closed</t>
   </si>
   <si>
     <t xml:space="preserve">1. В строке ввода ввести url: localhost:8080/auth/login
@@ -549,30 +599,164 @@
 Находиться в POST-реквесте Login.
 Индивидуальные данные помечаются как "|..|"</t>
   </si>
+  <si>
+    <t>Отсутствует поле Фамилия на странице регистрации</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>1. Находясь на главной странице нажать на кнопку Регистрация</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку отображается страница с формой регистрации, на которой нет поля для ввода Фамилия</t>
+  </si>
+  <si>
+    <t>Поле Фамилия должно быть</t>
+  </si>
+  <si>
+    <t>localhost:8080/registration</t>
+  </si>
+  <si>
+    <t>Отсутствует поле Отчество на странице регистрации</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку отображается страница с формой регистрации, на которой нет поля для ввода Отчество</t>
+  </si>
+  <si>
+    <t>Поле Отчество должно быть</t>
+  </si>
+  <si>
+    <t>Отсутствует поле Аватар на странице регистрации</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку отображается страница с формой регистрации, на которой нет поля для загрузки Аватар</t>
+  </si>
+  <si>
+    <t>Поле для загрузки Аватар должно быть</t>
+  </si>
+  <si>
+    <t>Отсутствует поле Индекс на странице регистрации</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку отображается страница с формой регистрации, на которой нет поля для ввода Индекс</t>
+  </si>
+  <si>
+    <t>Поле Индекс должно быть</t>
+  </si>
+  <si>
+    <t>Отсутствует поле Город на странице регистрации</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку отображается страница с формой регистрации, на которой нет поля для ввода Город</t>
+  </si>
+  <si>
+    <t>Поле Город должно быть</t>
+  </si>
+  <si>
+    <t>Отсутствует поле Улица на странице регистрации</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку отображается страница с формой регистрации, на которой нет поля для ввода Улица</t>
+  </si>
+  <si>
+    <t>Поле Улица должно быть</t>
+  </si>
+  <si>
+    <t>Отсутствует поле Номер дома на страние регистрации</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку отображается страница с формой регистрации, на которой нет поля для ввода Номер дома</t>
+  </si>
+  <si>
+    <t>Поле Номер дома должно быть</t>
+  </si>
+  <si>
+    <t>Отсутствует поле Номер строения на странице регистрации</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку отображается страница с формой регистрации, на которой нет поля для ввода Номер строения</t>
+  </si>
+  <si>
+    <t>Поле Номер строения должно быть</t>
+  </si>
+  <si>
+    <t>Отсутствует поле Номер квартиры на странице регистрации</t>
+  </si>
+  <si>
+    <t>После нажатия на кнопку отображается страница с формой регистрации, на которой нет поля для ввода Номер квартиры</t>
+  </si>
+  <si>
+    <t>Поле Номер квартиры должно быть</t>
+  </si>
+  <si>
+    <t>Символы в поле Имя скрыты, как будто это пароль</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>1. Находясь на главной странице нажать на кнопку Регистрация
+2. Нажать на поле ввода Имя и ввести что-нибудь</t>
+  </si>
+  <si>
+    <t>Все символы в поле скрыты</t>
+  </si>
+  <si>
+    <t>Символы не должны быть скрыты</t>
+  </si>
+  <si>
+    <t>Символы в поле Ник скрыты, как будто это пароль</t>
+  </si>
+  <si>
+    <t>1. Находясь на главной странице нажать на кнопку Регистрация
+2. Нажать на поле ввода Ник и ввести что-нибудь</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -580,7 +764,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -590,86 +774,74 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -859,25 +1031,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.5"/>
-    <col customWidth="1" min="2" max="2" width="15.0"/>
-    <col customWidth="1" min="4" max="4" width="22.38"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="32.25" customHeight="1">
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -905,7 +1080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -919,7 +1094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -933,7 +1108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,7 +1122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -961,7 +1136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -975,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -989,7 +1164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1003,7 +1178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1017,7 +1192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1031,7 +1206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1045,7 +1220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1059,7 +1234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1073,7 +1248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1087,7 +1262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1101,7 +1276,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1115,7 +1290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1129,7 +1304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1143,7 +1318,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1157,7 +1332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -1167,7 +1342,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -1177,7 +1352,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
@@ -1187,7 +1362,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>5</v>
@@ -1197,3011 +1372,3011 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38">
+    <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D192" s="4"/>
     </row>
-    <row r="193">
+    <row r="193" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D200" s="4"/>
     </row>
-    <row r="201">
+    <row r="201" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D201" s="4"/>
     </row>
-    <row r="202">
+    <row r="202" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D202" s="4"/>
     </row>
-    <row r="203">
+    <row r="203" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D203" s="4"/>
     </row>
-    <row r="204">
+    <row r="204" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D204" s="4"/>
     </row>
-    <row r="205">
+    <row r="205" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D205" s="4"/>
     </row>
-    <row r="206">
+    <row r="206" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D206" s="4"/>
     </row>
-    <row r="207">
+    <row r="207" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D207" s="4"/>
     </row>
-    <row r="208">
+    <row r="208" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D208" s="4"/>
     </row>
-    <row r="209">
+    <row r="209" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D209" s="4"/>
     </row>
-    <row r="210">
+    <row r="210" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D210" s="4"/>
     </row>
-    <row r="211">
+    <row r="211" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D211" s="4"/>
     </row>
-    <row r="212">
+    <row r="212" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D212" s="4"/>
     </row>
-    <row r="213">
+    <row r="213" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D213" s="4"/>
     </row>
-    <row r="214">
+    <row r="214" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D214" s="4"/>
     </row>
-    <row r="215">
+    <row r="215" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D215" s="4"/>
     </row>
-    <row r="216">
+    <row r="216" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D216" s="4"/>
     </row>
-    <row r="217">
+    <row r="217" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D217" s="4"/>
     </row>
-    <row r="218">
+    <row r="218" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D218" s="4"/>
     </row>
-    <row r="219">
+    <row r="219" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D219" s="4"/>
     </row>
-    <row r="220">
+    <row r="220" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D220" s="4"/>
     </row>
-    <row r="221">
+    <row r="221" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D221" s="4"/>
     </row>
-    <row r="222">
+    <row r="222" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D222" s="4"/>
     </row>
-    <row r="223">
+    <row r="223" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D223" s="4"/>
     </row>
-    <row r="224">
+    <row r="224" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D224" s="4"/>
     </row>
-    <row r="225">
+    <row r="225" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D225" s="4"/>
     </row>
-    <row r="226">
+    <row r="226" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D226" s="4"/>
     </row>
-    <row r="227">
+    <row r="227" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D227" s="4"/>
     </row>
-    <row r="228">
+    <row r="228" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D228" s="4"/>
     </row>
-    <row r="229">
+    <row r="229" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D229" s="4"/>
     </row>
-    <row r="230">
+    <row r="230" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D230" s="4"/>
     </row>
-    <row r="231">
+    <row r="231" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D231" s="4"/>
     </row>
-    <row r="232">
+    <row r="232" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D232" s="4"/>
     </row>
-    <row r="233">
+    <row r="233" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D233" s="4"/>
     </row>
-    <row r="234">
+    <row r="234" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D234" s="4"/>
     </row>
-    <row r="235">
+    <row r="235" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D235" s="4"/>
     </row>
-    <row r="236">
+    <row r="236" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D236" s="4"/>
     </row>
-    <row r="237">
+    <row r="237" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D237" s="4"/>
     </row>
-    <row r="238">
+    <row r="238" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D238" s="4"/>
     </row>
-    <row r="239">
+    <row r="239" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D239" s="4"/>
     </row>
-    <row r="240">
+    <row r="240" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D240" s="4"/>
     </row>
-    <row r="241">
+    <row r="241" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D241" s="4"/>
     </row>
-    <row r="242">
+    <row r="242" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D242" s="4"/>
     </row>
-    <row r="243">
+    <row r="243" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D243" s="4"/>
     </row>
-    <row r="244">
+    <row r="244" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D244" s="4"/>
     </row>
-    <row r="245">
+    <row r="245" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D245" s="4"/>
     </row>
-    <row r="246">
+    <row r="246" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D246" s="4"/>
     </row>
-    <row r="247">
+    <row r="247" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D247" s="4"/>
     </row>
-    <row r="248">
+    <row r="248" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D248" s="4"/>
     </row>
-    <row r="249">
+    <row r="249" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D249" s="4"/>
     </row>
-    <row r="250">
+    <row r="250" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D250" s="4"/>
     </row>
-    <row r="251">
+    <row r="251" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D251" s="4"/>
     </row>
-    <row r="252">
+    <row r="252" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D252" s="4"/>
     </row>
-    <row r="253">
+    <row r="253" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D253" s="4"/>
     </row>
-    <row r="254">
+    <row r="254" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D254" s="4"/>
     </row>
-    <row r="255">
+    <row r="255" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D255" s="4"/>
     </row>
-    <row r="256">
+    <row r="256" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D256" s="4"/>
     </row>
-    <row r="257">
+    <row r="257" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D257" s="4"/>
     </row>
-    <row r="258">
+    <row r="258" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D258" s="4"/>
     </row>
-    <row r="259">
+    <row r="259" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D259" s="4"/>
     </row>
-    <row r="260">
+    <row r="260" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D260" s="4"/>
     </row>
-    <row r="261">
+    <row r="261" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D261" s="4"/>
     </row>
-    <row r="262">
+    <row r="262" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D262" s="4"/>
     </row>
-    <row r="263">
+    <row r="263" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D263" s="4"/>
     </row>
-    <row r="264">
+    <row r="264" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D264" s="4"/>
     </row>
-    <row r="265">
+    <row r="265" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D265" s="4"/>
     </row>
-    <row r="266">
+    <row r="266" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D266" s="4"/>
     </row>
-    <row r="267">
+    <row r="267" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D267" s="4"/>
     </row>
-    <row r="268">
+    <row r="268" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D268" s="4"/>
     </row>
-    <row r="269">
+    <row r="269" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D269" s="4"/>
     </row>
-    <row r="270">
+    <row r="270" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D270" s="4"/>
     </row>
-    <row r="271">
+    <row r="271" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D271" s="4"/>
     </row>
-    <row r="272">
+    <row r="272" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D272" s="4"/>
     </row>
-    <row r="273">
+    <row r="273" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D273" s="4"/>
     </row>
-    <row r="274">
+    <row r="274" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D274" s="4"/>
     </row>
-    <row r="275">
+    <row r="275" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D275" s="4"/>
     </row>
-    <row r="276">
+    <row r="276" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D276" s="4"/>
     </row>
-    <row r="277">
+    <row r="277" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D277" s="4"/>
     </row>
-    <row r="278">
+    <row r="278" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D278" s="4"/>
     </row>
-    <row r="279">
+    <row r="279" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D279" s="4"/>
     </row>
-    <row r="280">
+    <row r="280" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D280" s="4"/>
     </row>
-    <row r="281">
+    <row r="281" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D281" s="4"/>
     </row>
-    <row r="282">
+    <row r="282" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D282" s="4"/>
     </row>
-    <row r="283">
+    <row r="283" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D283" s="4"/>
     </row>
-    <row r="284">
+    <row r="284" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D284" s="4"/>
     </row>
-    <row r="285">
+    <row r="285" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D285" s="4"/>
     </row>
-    <row r="286">
+    <row r="286" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D286" s="4"/>
     </row>
-    <row r="287">
+    <row r="287" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D287" s="4"/>
     </row>
-    <row r="288">
+    <row r="288" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D288" s="4"/>
     </row>
-    <row r="289">
+    <row r="289" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D289" s="4"/>
     </row>
-    <row r="290">
+    <row r="290" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D290" s="4"/>
     </row>
-    <row r="291">
+    <row r="291" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D291" s="4"/>
     </row>
-    <row r="292">
+    <row r="292" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D292" s="4"/>
     </row>
-    <row r="293">
+    <row r="293" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D293" s="4"/>
     </row>
-    <row r="294">
+    <row r="294" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D294" s="4"/>
     </row>
-    <row r="295">
+    <row r="295" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D295" s="4"/>
     </row>
-    <row r="296">
+    <row r="296" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D296" s="4"/>
     </row>
-    <row r="297">
+    <row r="297" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D297" s="4"/>
     </row>
-    <row r="298">
+    <row r="298" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D298" s="4"/>
     </row>
-    <row r="299">
+    <row r="299" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D299" s="4"/>
     </row>
-    <row r="300">
+    <row r="300" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D300" s="4"/>
     </row>
-    <row r="301">
+    <row r="301" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D301" s="4"/>
     </row>
-    <row r="302">
+    <row r="302" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D302" s="4"/>
     </row>
-    <row r="303">
+    <row r="303" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D303" s="4"/>
     </row>
-    <row r="304">
+    <row r="304" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D304" s="4"/>
     </row>
-    <row r="305">
+    <row r="305" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D305" s="4"/>
     </row>
-    <row r="306">
+    <row r="306" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D306" s="4"/>
     </row>
-    <row r="307">
+    <row r="307" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D307" s="4"/>
     </row>
-    <row r="308">
+    <row r="308" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D308" s="4"/>
     </row>
-    <row r="309">
+    <row r="309" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D309" s="4"/>
     </row>
-    <row r="310">
+    <row r="310" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D310" s="4"/>
     </row>
-    <row r="311">
+    <row r="311" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D311" s="4"/>
     </row>
-    <row r="312">
+    <row r="312" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D312" s="4"/>
     </row>
-    <row r="313">
+    <row r="313" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D313" s="4"/>
     </row>
-    <row r="314">
+    <row r="314" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D314" s="4"/>
     </row>
-    <row r="315">
+    <row r="315" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D315" s="4"/>
     </row>
-    <row r="316">
+    <row r="316" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D316" s="4"/>
     </row>
-    <row r="317">
+    <row r="317" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D317" s="4"/>
     </row>
-    <row r="318">
+    <row r="318" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D318" s="4"/>
     </row>
-    <row r="319">
+    <row r="319" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D319" s="4"/>
     </row>
-    <row r="320">
+    <row r="320" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D320" s="4"/>
     </row>
-    <row r="321">
+    <row r="321" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D321" s="4"/>
     </row>
-    <row r="322">
+    <row r="322" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D322" s="4"/>
     </row>
-    <row r="323">
+    <row r="323" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D323" s="4"/>
     </row>
-    <row r="324">
+    <row r="324" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D324" s="4"/>
     </row>
-    <row r="325">
+    <row r="325" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D325" s="4"/>
     </row>
-    <row r="326">
+    <row r="326" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D326" s="4"/>
     </row>
-    <row r="327">
+    <row r="327" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D327" s="4"/>
     </row>
-    <row r="328">
+    <row r="328" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D328" s="4"/>
     </row>
-    <row r="329">
+    <row r="329" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D329" s="4"/>
     </row>
-    <row r="330">
+    <row r="330" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D330" s="4"/>
     </row>
-    <row r="331">
+    <row r="331" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D331" s="4"/>
     </row>
-    <row r="332">
+    <row r="332" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D332" s="4"/>
     </row>
-    <row r="333">
+    <row r="333" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D333" s="4"/>
     </row>
-    <row r="334">
+    <row r="334" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D334" s="4"/>
     </row>
-    <row r="335">
+    <row r="335" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D335" s="4"/>
     </row>
-    <row r="336">
+    <row r="336" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D336" s="4"/>
     </row>
-    <row r="337">
+    <row r="337" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D337" s="4"/>
     </row>
-    <row r="338">
+    <row r="338" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D338" s="4"/>
     </row>
-    <row r="339">
+    <row r="339" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D339" s="4"/>
     </row>
-    <row r="340">
+    <row r="340" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D340" s="4"/>
     </row>
-    <row r="341">
+    <row r="341" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D341" s="4"/>
     </row>
-    <row r="342">
+    <row r="342" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D342" s="4"/>
     </row>
-    <row r="343">
+    <row r="343" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D343" s="4"/>
     </row>
-    <row r="344">
+    <row r="344" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D344" s="4"/>
     </row>
-    <row r="345">
+    <row r="345" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D345" s="4"/>
     </row>
-    <row r="346">
+    <row r="346" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D346" s="4"/>
     </row>
-    <row r="347">
+    <row r="347" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D347" s="4"/>
     </row>
-    <row r="348">
+    <row r="348" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D348" s="4"/>
     </row>
-    <row r="349">
+    <row r="349" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D349" s="4"/>
     </row>
-    <row r="350">
+    <row r="350" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D350" s="4"/>
     </row>
-    <row r="351">
+    <row r="351" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D351" s="4"/>
     </row>
-    <row r="352">
+    <row r="352" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D352" s="4"/>
     </row>
-    <row r="353">
+    <row r="353" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D353" s="4"/>
     </row>
-    <row r="354">
+    <row r="354" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D354" s="4"/>
     </row>
-    <row r="355">
+    <row r="355" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D355" s="4"/>
     </row>
-    <row r="356">
+    <row r="356" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D356" s="4"/>
     </row>
-    <row r="357">
+    <row r="357" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D357" s="4"/>
     </row>
-    <row r="358">
+    <row r="358" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D358" s="4"/>
     </row>
-    <row r="359">
+    <row r="359" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D359" s="4"/>
     </row>
-    <row r="360">
+    <row r="360" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D360" s="4"/>
     </row>
-    <row r="361">
+    <row r="361" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D361" s="4"/>
     </row>
-    <row r="362">
+    <row r="362" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D362" s="4"/>
     </row>
-    <row r="363">
+    <row r="363" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D363" s="4"/>
     </row>
-    <row r="364">
+    <row r="364" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D364" s="4"/>
     </row>
-    <row r="365">
+    <row r="365" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D365" s="4"/>
     </row>
-    <row r="366">
+    <row r="366" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D366" s="4"/>
     </row>
-    <row r="367">
+    <row r="367" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D367" s="4"/>
     </row>
-    <row r="368">
+    <row r="368" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D368" s="4"/>
     </row>
-    <row r="369">
+    <row r="369" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D369" s="4"/>
     </row>
-    <row r="370">
+    <row r="370" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D370" s="4"/>
     </row>
-    <row r="371">
+    <row r="371" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D371" s="4"/>
     </row>
-    <row r="372">
+    <row r="372" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D372" s="4"/>
     </row>
-    <row r="373">
+    <row r="373" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D373" s="4"/>
     </row>
-    <row r="374">
+    <row r="374" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D374" s="4"/>
     </row>
-    <row r="375">
+    <row r="375" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D375" s="4"/>
     </row>
-    <row r="376">
+    <row r="376" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D376" s="4"/>
     </row>
-    <row r="377">
+    <row r="377" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D377" s="4"/>
     </row>
-    <row r="378">
+    <row r="378" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D378" s="4"/>
     </row>
-    <row r="379">
+    <row r="379" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D379" s="4"/>
     </row>
-    <row r="380">
+    <row r="380" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D380" s="4"/>
     </row>
-    <row r="381">
+    <row r="381" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D381" s="4"/>
     </row>
-    <row r="382">
+    <row r="382" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D382" s="4"/>
     </row>
-    <row r="383">
+    <row r="383" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D383" s="4"/>
     </row>
-    <row r="384">
+    <row r="384" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D384" s="4"/>
     </row>
-    <row r="385">
+    <row r="385" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D385" s="4"/>
     </row>
-    <row r="386">
+    <row r="386" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D386" s="4"/>
     </row>
-    <row r="387">
+    <row r="387" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D387" s="4"/>
     </row>
-    <row r="388">
+    <row r="388" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D388" s="4"/>
     </row>
-    <row r="389">
+    <row r="389" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D389" s="4"/>
     </row>
-    <row r="390">
+    <row r="390" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D390" s="4"/>
     </row>
-    <row r="391">
+    <row r="391" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D391" s="4"/>
     </row>
-    <row r="392">
+    <row r="392" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D392" s="4"/>
     </row>
-    <row r="393">
+    <row r="393" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D393" s="4"/>
     </row>
-    <row r="394">
+    <row r="394" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D394" s="4"/>
     </row>
-    <row r="395">
+    <row r="395" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D395" s="4"/>
     </row>
-    <row r="396">
+    <row r="396" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D396" s="4"/>
     </row>
-    <row r="397">
+    <row r="397" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D397" s="4"/>
     </row>
-    <row r="398">
+    <row r="398" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D398" s="4"/>
     </row>
-    <row r="399">
+    <row r="399" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D399" s="4"/>
     </row>
-    <row r="400">
+    <row r="400" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D400" s="4"/>
     </row>
-    <row r="401">
+    <row r="401" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D401" s="4"/>
     </row>
-    <row r="402">
+    <row r="402" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D402" s="4"/>
     </row>
-    <row r="403">
+    <row r="403" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D403" s="4"/>
     </row>
-    <row r="404">
+    <row r="404" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D404" s="4"/>
     </row>
-    <row r="405">
+    <row r="405" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D405" s="4"/>
     </row>
-    <row r="406">
+    <row r="406" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D406" s="4"/>
     </row>
-    <row r="407">
+    <row r="407" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D407" s="4"/>
     </row>
-    <row r="408">
+    <row r="408" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D408" s="4"/>
     </row>
-    <row r="409">
+    <row r="409" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D409" s="4"/>
     </row>
-    <row r="410">
+    <row r="410" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D410" s="4"/>
     </row>
-    <row r="411">
+    <row r="411" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D411" s="4"/>
     </row>
-    <row r="412">
+    <row r="412" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D412" s="4"/>
     </row>
-    <row r="413">
+    <row r="413" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D413" s="4"/>
     </row>
-    <row r="414">
+    <row r="414" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D414" s="4"/>
     </row>
-    <row r="415">
+    <row r="415" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D415" s="4"/>
     </row>
-    <row r="416">
+    <row r="416" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D416" s="4"/>
     </row>
-    <row r="417">
+    <row r="417" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D417" s="4"/>
     </row>
-    <row r="418">
+    <row r="418" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D418" s="4"/>
     </row>
-    <row r="419">
+    <row r="419" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D419" s="4"/>
     </row>
-    <row r="420">
+    <row r="420" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D420" s="4"/>
     </row>
-    <row r="421">
+    <row r="421" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D421" s="4"/>
     </row>
-    <row r="422">
+    <row r="422" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D422" s="4"/>
     </row>
-    <row r="423">
+    <row r="423" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D423" s="4"/>
     </row>
-    <row r="424">
+    <row r="424" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D424" s="4"/>
     </row>
-    <row r="425">
+    <row r="425" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D425" s="4"/>
     </row>
-    <row r="426">
+    <row r="426" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D426" s="4"/>
     </row>
-    <row r="427">
+    <row r="427" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D427" s="4"/>
     </row>
-    <row r="428">
+    <row r="428" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D428" s="4"/>
     </row>
-    <row r="429">
+    <row r="429" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D429" s="4"/>
     </row>
-    <row r="430">
+    <row r="430" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D430" s="4"/>
     </row>
-    <row r="431">
+    <row r="431" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D431" s="4"/>
     </row>
-    <row r="432">
+    <row r="432" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D432" s="4"/>
     </row>
-    <row r="433">
+    <row r="433" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D433" s="4"/>
     </row>
-    <row r="434">
+    <row r="434" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D434" s="4"/>
     </row>
-    <row r="435">
+    <row r="435" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D435" s="4"/>
     </row>
-    <row r="436">
+    <row r="436" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D436" s="4"/>
     </row>
-    <row r="437">
+    <row r="437" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D437" s="4"/>
     </row>
-    <row r="438">
+    <row r="438" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D438" s="4"/>
     </row>
-    <row r="439">
+    <row r="439" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D439" s="4"/>
     </row>
-    <row r="440">
+    <row r="440" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D440" s="4"/>
     </row>
-    <row r="441">
+    <row r="441" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D441" s="4"/>
     </row>
-    <row r="442">
+    <row r="442" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D442" s="4"/>
     </row>
-    <row r="443">
+    <row r="443" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D443" s="4"/>
     </row>
-    <row r="444">
+    <row r="444" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D444" s="4"/>
     </row>
-    <row r="445">
+    <row r="445" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D445" s="4"/>
     </row>
-    <row r="446">
+    <row r="446" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D446" s="4"/>
     </row>
-    <row r="447">
+    <row r="447" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D447" s="4"/>
     </row>
-    <row r="448">
+    <row r="448" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D448" s="4"/>
     </row>
-    <row r="449">
+    <row r="449" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D449" s="4"/>
     </row>
-    <row r="450">
+    <row r="450" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D450" s="4"/>
     </row>
-    <row r="451">
+    <row r="451" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D451" s="4"/>
     </row>
-    <row r="452">
+    <row r="452" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D452" s="4"/>
     </row>
-    <row r="453">
+    <row r="453" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D453" s="4"/>
     </row>
-    <row r="454">
+    <row r="454" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D454" s="4"/>
     </row>
-    <row r="455">
+    <row r="455" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D455" s="4"/>
     </row>
-    <row r="456">
+    <row r="456" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D456" s="4"/>
     </row>
-    <row r="457">
+    <row r="457" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D457" s="4"/>
     </row>
-    <row r="458">
+    <row r="458" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D458" s="4"/>
     </row>
-    <row r="459">
+    <row r="459" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D459" s="4"/>
     </row>
-    <row r="460">
+    <row r="460" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D460" s="4"/>
     </row>
-    <row r="461">
+    <row r="461" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D461" s="4"/>
     </row>
-    <row r="462">
+    <row r="462" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D462" s="4"/>
     </row>
-    <row r="463">
+    <row r="463" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D463" s="4"/>
     </row>
-    <row r="464">
+    <row r="464" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D464" s="4"/>
     </row>
-    <row r="465">
+    <row r="465" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D465" s="4"/>
     </row>
-    <row r="466">
+    <row r="466" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D466" s="4"/>
     </row>
-    <row r="467">
+    <row r="467" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D467" s="4"/>
     </row>
-    <row r="468">
+    <row r="468" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D468" s="4"/>
     </row>
-    <row r="469">
+    <row r="469" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D469" s="4"/>
     </row>
-    <row r="470">
+    <row r="470" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D470" s="4"/>
     </row>
-    <row r="471">
+    <row r="471" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D471" s="4"/>
     </row>
-    <row r="472">
+    <row r="472" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D472" s="4"/>
     </row>
-    <row r="473">
+    <row r="473" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D473" s="4"/>
     </row>
-    <row r="474">
+    <row r="474" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D474" s="4"/>
     </row>
-    <row r="475">
+    <row r="475" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D475" s="4"/>
     </row>
-    <row r="476">
+    <row r="476" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D476" s="4"/>
     </row>
-    <row r="477">
+    <row r="477" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D477" s="4"/>
     </row>
-    <row r="478">
+    <row r="478" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D478" s="4"/>
     </row>
-    <row r="479">
+    <row r="479" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D479" s="4"/>
     </row>
-    <row r="480">
+    <row r="480" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D480" s="4"/>
     </row>
-    <row r="481">
+    <row r="481" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D481" s="4"/>
     </row>
-    <row r="482">
+    <row r="482" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D482" s="4"/>
     </row>
-    <row r="483">
+    <row r="483" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D483" s="4"/>
     </row>
-    <row r="484">
+    <row r="484" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D484" s="4"/>
     </row>
-    <row r="485">
+    <row r="485" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D485" s="4"/>
     </row>
-    <row r="486">
+    <row r="486" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D486" s="4"/>
     </row>
-    <row r="487">
+    <row r="487" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D487" s="4"/>
     </row>
-    <row r="488">
+    <row r="488" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D488" s="4"/>
     </row>
-    <row r="489">
+    <row r="489" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D489" s="4"/>
     </row>
-    <row r="490">
+    <row r="490" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D490" s="4"/>
     </row>
-    <row r="491">
+    <row r="491" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D491" s="4"/>
     </row>
-    <row r="492">
+    <row r="492" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D492" s="4"/>
     </row>
-    <row r="493">
+    <row r="493" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D493" s="4"/>
     </row>
-    <row r="494">
+    <row r="494" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D494" s="4"/>
     </row>
-    <row r="495">
+    <row r="495" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D495" s="4"/>
     </row>
-    <row r="496">
+    <row r="496" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D496" s="4"/>
     </row>
-    <row r="497">
+    <row r="497" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D497" s="4"/>
     </row>
-    <row r="498">
+    <row r="498" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D498" s="4"/>
     </row>
-    <row r="499">
+    <row r="499" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D499" s="4"/>
     </row>
-    <row r="500">
+    <row r="500" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D500" s="4"/>
     </row>
-    <row r="501">
+    <row r="501" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D501" s="4"/>
     </row>
-    <row r="502">
+    <row r="502" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D502" s="4"/>
     </row>
-    <row r="503">
+    <row r="503" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D503" s="4"/>
     </row>
-    <row r="504">
+    <row r="504" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D504" s="4"/>
     </row>
-    <row r="505">
+    <row r="505" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D505" s="4"/>
     </row>
-    <row r="506">
+    <row r="506" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D506" s="4"/>
     </row>
-    <row r="507">
+    <row r="507" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D507" s="4"/>
     </row>
-    <row r="508">
+    <row r="508" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D508" s="4"/>
     </row>
-    <row r="509">
+    <row r="509" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D509" s="4"/>
     </row>
-    <row r="510">
+    <row r="510" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D510" s="4"/>
     </row>
-    <row r="511">
+    <row r="511" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D511" s="4"/>
     </row>
-    <row r="512">
+    <row r="512" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D512" s="4"/>
     </row>
-    <row r="513">
+    <row r="513" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D513" s="4"/>
     </row>
-    <row r="514">
+    <row r="514" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D514" s="4"/>
     </row>
-    <row r="515">
+    <row r="515" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D515" s="4"/>
     </row>
-    <row r="516">
+    <row r="516" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D516" s="4"/>
     </row>
-    <row r="517">
+    <row r="517" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D517" s="4"/>
     </row>
-    <row r="518">
+    <row r="518" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D518" s="4"/>
     </row>
-    <row r="519">
+    <row r="519" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D519" s="4"/>
     </row>
-    <row r="520">
+    <row r="520" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D520" s="4"/>
     </row>
-    <row r="521">
+    <row r="521" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D521" s="4"/>
     </row>
-    <row r="522">
+    <row r="522" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D522" s="4"/>
     </row>
-    <row r="523">
+    <row r="523" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D523" s="4"/>
     </row>
-    <row r="524">
+    <row r="524" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D524" s="4"/>
     </row>
-    <row r="525">
+    <row r="525" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D525" s="4"/>
     </row>
-    <row r="526">
+    <row r="526" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D526" s="4"/>
     </row>
-    <row r="527">
+    <row r="527" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D527" s="4"/>
     </row>
-    <row r="528">
+    <row r="528" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D528" s="4"/>
     </row>
-    <row r="529">
+    <row r="529" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D529" s="4"/>
     </row>
-    <row r="530">
+    <row r="530" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D530" s="4"/>
     </row>
-    <row r="531">
+    <row r="531" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D531" s="4"/>
     </row>
-    <row r="532">
+    <row r="532" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D532" s="4"/>
     </row>
-    <row r="533">
+    <row r="533" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D533" s="4"/>
     </row>
-    <row r="534">
+    <row r="534" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D534" s="4"/>
     </row>
-    <row r="535">
+    <row r="535" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D535" s="4"/>
     </row>
-    <row r="536">
+    <row r="536" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D536" s="4"/>
     </row>
-    <row r="537">
+    <row r="537" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D537" s="4"/>
     </row>
-    <row r="538">
+    <row r="538" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D538" s="4"/>
     </row>
-    <row r="539">
+    <row r="539" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D539" s="4"/>
     </row>
-    <row r="540">
+    <row r="540" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D540" s="4"/>
     </row>
-    <row r="541">
+    <row r="541" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D541" s="4"/>
     </row>
-    <row r="542">
+    <row r="542" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D542" s="4"/>
     </row>
-    <row r="543">
+    <row r="543" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D543" s="4"/>
     </row>
-    <row r="544">
+    <row r="544" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D544" s="4"/>
     </row>
-    <row r="545">
+    <row r="545" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D545" s="4"/>
     </row>
-    <row r="546">
+    <row r="546" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D546" s="4"/>
     </row>
-    <row r="547">
+    <row r="547" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D547" s="4"/>
     </row>
-    <row r="548">
+    <row r="548" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D548" s="4"/>
     </row>
-    <row r="549">
+    <row r="549" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D549" s="4"/>
     </row>
-    <row r="550">
+    <row r="550" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D550" s="4"/>
     </row>
-    <row r="551">
+    <row r="551" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D551" s="4"/>
     </row>
-    <row r="552">
+    <row r="552" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D552" s="4"/>
     </row>
-    <row r="553">
+    <row r="553" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D553" s="4"/>
     </row>
-    <row r="554">
+    <row r="554" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D554" s="4"/>
     </row>
-    <row r="555">
+    <row r="555" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D555" s="4"/>
     </row>
-    <row r="556">
+    <row r="556" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D556" s="4"/>
     </row>
-    <row r="557">
+    <row r="557" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D557" s="4"/>
     </row>
-    <row r="558">
+    <row r="558" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D558" s="4"/>
     </row>
-    <row r="559">
+    <row r="559" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D559" s="4"/>
     </row>
-    <row r="560">
+    <row r="560" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D560" s="4"/>
     </row>
-    <row r="561">
+    <row r="561" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D561" s="4"/>
     </row>
-    <row r="562">
+    <row r="562" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D562" s="4"/>
     </row>
-    <row r="563">
+    <row r="563" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D563" s="4"/>
     </row>
-    <row r="564">
+    <row r="564" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D564" s="4"/>
     </row>
-    <row r="565">
+    <row r="565" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D565" s="4"/>
     </row>
-    <row r="566">
+    <row r="566" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D566" s="4"/>
     </row>
-    <row r="567">
+    <row r="567" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D567" s="4"/>
     </row>
-    <row r="568">
+    <row r="568" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D568" s="4"/>
     </row>
-    <row r="569">
+    <row r="569" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D569" s="4"/>
     </row>
-    <row r="570">
+    <row r="570" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D570" s="4"/>
     </row>
-    <row r="571">
+    <row r="571" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D571" s="4"/>
     </row>
-    <row r="572">
+    <row r="572" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D572" s="4"/>
     </row>
-    <row r="573">
+    <row r="573" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D573" s="4"/>
     </row>
-    <row r="574">
+    <row r="574" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D574" s="4"/>
     </row>
-    <row r="575">
+    <row r="575" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D575" s="4"/>
     </row>
-    <row r="576">
+    <row r="576" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D576" s="4"/>
     </row>
-    <row r="577">
+    <row r="577" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D577" s="4"/>
     </row>
-    <row r="578">
+    <row r="578" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D578" s="4"/>
     </row>
-    <row r="579">
+    <row r="579" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D579" s="4"/>
     </row>
-    <row r="580">
+    <row r="580" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D580" s="4"/>
     </row>
-    <row r="581">
+    <row r="581" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D581" s="4"/>
     </row>
-    <row r="582">
+    <row r="582" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D582" s="4"/>
     </row>
-    <row r="583">
+    <row r="583" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D583" s="4"/>
     </row>
-    <row r="584">
+    <row r="584" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D584" s="4"/>
     </row>
-    <row r="585">
+    <row r="585" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D585" s="4"/>
     </row>
-    <row r="586">
+    <row r="586" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D586" s="4"/>
     </row>
-    <row r="587">
+    <row r="587" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D587" s="4"/>
     </row>
-    <row r="588">
+    <row r="588" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D588" s="4"/>
     </row>
-    <row r="589">
+    <row r="589" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D589" s="4"/>
     </row>
-    <row r="590">
+    <row r="590" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D590" s="4"/>
     </row>
-    <row r="591">
+    <row r="591" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D591" s="4"/>
     </row>
-    <row r="592">
+    <row r="592" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D592" s="4"/>
     </row>
-    <row r="593">
+    <row r="593" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D593" s="4"/>
     </row>
-    <row r="594">
+    <row r="594" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D594" s="4"/>
     </row>
-    <row r="595">
+    <row r="595" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D595" s="4"/>
     </row>
-    <row r="596">
+    <row r="596" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D596" s="4"/>
     </row>
-    <row r="597">
+    <row r="597" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D597" s="4"/>
     </row>
-    <row r="598">
+    <row r="598" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D598" s="4"/>
     </row>
-    <row r="599">
+    <row r="599" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D599" s="4"/>
     </row>
-    <row r="600">
+    <row r="600" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D600" s="4"/>
     </row>
-    <row r="601">
+    <row r="601" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D601" s="4"/>
     </row>
-    <row r="602">
+    <row r="602" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D602" s="4"/>
     </row>
-    <row r="603">
+    <row r="603" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D603" s="4"/>
     </row>
-    <row r="604">
+    <row r="604" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D604" s="4"/>
     </row>
-    <row r="605">
+    <row r="605" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D605" s="4"/>
     </row>
-    <row r="606">
+    <row r="606" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D606" s="4"/>
     </row>
-    <row r="607">
+    <row r="607" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D607" s="4"/>
     </row>
-    <row r="608">
+    <row r="608" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D608" s="4"/>
     </row>
-    <row r="609">
+    <row r="609" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D609" s="4"/>
     </row>
-    <row r="610">
+    <row r="610" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D610" s="4"/>
     </row>
-    <row r="611">
+    <row r="611" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D611" s="4"/>
     </row>
-    <row r="612">
+    <row r="612" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D612" s="4"/>
     </row>
-    <row r="613">
+    <row r="613" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D613" s="4"/>
     </row>
-    <row r="614">
+    <row r="614" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D614" s="4"/>
     </row>
-    <row r="615">
+    <row r="615" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D615" s="4"/>
     </row>
-    <row r="616">
+    <row r="616" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D616" s="4"/>
     </row>
-    <row r="617">
+    <row r="617" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D617" s="4"/>
     </row>
-    <row r="618">
+    <row r="618" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D618" s="4"/>
     </row>
-    <row r="619">
+    <row r="619" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D619" s="4"/>
     </row>
-    <row r="620">
+    <row r="620" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D620" s="4"/>
     </row>
-    <row r="621">
+    <row r="621" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D621" s="4"/>
     </row>
-    <row r="622">
+    <row r="622" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D622" s="4"/>
     </row>
-    <row r="623">
+    <row r="623" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D623" s="4"/>
     </row>
-    <row r="624">
+    <row r="624" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D624" s="4"/>
     </row>
-    <row r="625">
+    <row r="625" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D625" s="4"/>
     </row>
-    <row r="626">
+    <row r="626" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D626" s="4"/>
     </row>
-    <row r="627">
+    <row r="627" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D627" s="4"/>
     </row>
-    <row r="628">
+    <row r="628" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D628" s="4"/>
     </row>
-    <row r="629">
+    <row r="629" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D629" s="4"/>
     </row>
-    <row r="630">
+    <row r="630" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D630" s="4"/>
     </row>
-    <row r="631">
+    <row r="631" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D631" s="4"/>
     </row>
-    <row r="632">
+    <row r="632" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D632" s="4"/>
     </row>
-    <row r="633">
+    <row r="633" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D633" s="4"/>
     </row>
-    <row r="634">
+    <row r="634" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D634" s="4"/>
     </row>
-    <row r="635">
+    <row r="635" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D635" s="4"/>
     </row>
-    <row r="636">
+    <row r="636" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D636" s="4"/>
     </row>
-    <row r="637">
+    <row r="637" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D637" s="4"/>
     </row>
-    <row r="638">
+    <row r="638" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D638" s="4"/>
     </row>
-    <row r="639">
+    <row r="639" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D639" s="4"/>
     </row>
-    <row r="640">
+    <row r="640" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D640" s="4"/>
     </row>
-    <row r="641">
+    <row r="641" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D641" s="4"/>
     </row>
-    <row r="642">
+    <row r="642" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D642" s="4"/>
     </row>
-    <row r="643">
+    <row r="643" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D643" s="4"/>
     </row>
-    <row r="644">
+    <row r="644" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D644" s="4"/>
     </row>
-    <row r="645">
+    <row r="645" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D645" s="4"/>
     </row>
-    <row r="646">
+    <row r="646" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D646" s="4"/>
     </row>
-    <row r="647">
+    <row r="647" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D647" s="4"/>
     </row>
-    <row r="648">
+    <row r="648" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D648" s="4"/>
     </row>
-    <row r="649">
+    <row r="649" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D649" s="4"/>
     </row>
-    <row r="650">
+    <row r="650" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D650" s="4"/>
     </row>
-    <row r="651">
+    <row r="651" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D651" s="4"/>
     </row>
-    <row r="652">
+    <row r="652" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D652" s="4"/>
     </row>
-    <row r="653">
+    <row r="653" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D653" s="4"/>
     </row>
-    <row r="654">
+    <row r="654" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D654" s="4"/>
     </row>
-    <row r="655">
+    <row r="655" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D655" s="4"/>
     </row>
-    <row r="656">
+    <row r="656" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D656" s="4"/>
     </row>
-    <row r="657">
+    <row r="657" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D657" s="4"/>
     </row>
-    <row r="658">
+    <row r="658" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D658" s="4"/>
     </row>
-    <row r="659">
+    <row r="659" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D659" s="4"/>
     </row>
-    <row r="660">
+    <row r="660" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D660" s="4"/>
     </row>
-    <row r="661">
+    <row r="661" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D661" s="4"/>
     </row>
-    <row r="662">
+    <row r="662" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D662" s="4"/>
     </row>
-    <row r="663">
+    <row r="663" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D663" s="4"/>
     </row>
-    <row r="664">
+    <row r="664" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D664" s="4"/>
     </row>
-    <row r="665">
+    <row r="665" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D665" s="4"/>
     </row>
-    <row r="666">
+    <row r="666" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D666" s="4"/>
     </row>
-    <row r="667">
+    <row r="667" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D667" s="4"/>
     </row>
-    <row r="668">
+    <row r="668" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D668" s="4"/>
     </row>
-    <row r="669">
+    <row r="669" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D669" s="4"/>
     </row>
-    <row r="670">
+    <row r="670" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D670" s="4"/>
     </row>
-    <row r="671">
+    <row r="671" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D671" s="4"/>
     </row>
-    <row r="672">
+    <row r="672" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D672" s="4"/>
     </row>
-    <row r="673">
+    <row r="673" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D673" s="4"/>
     </row>
-    <row r="674">
+    <row r="674" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D674" s="4"/>
     </row>
-    <row r="675">
+    <row r="675" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D675" s="4"/>
     </row>
-    <row r="676">
+    <row r="676" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D676" s="4"/>
     </row>
-    <row r="677">
+    <row r="677" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D677" s="4"/>
     </row>
-    <row r="678">
+    <row r="678" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D678" s="4"/>
     </row>
-    <row r="679">
+    <row r="679" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D679" s="4"/>
     </row>
-    <row r="680">
+    <row r="680" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D680" s="4"/>
     </row>
-    <row r="681">
+    <row r="681" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D681" s="4"/>
     </row>
-    <row r="682">
+    <row r="682" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D682" s="4"/>
     </row>
-    <row r="683">
+    <row r="683" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D683" s="4"/>
     </row>
-    <row r="684">
+    <row r="684" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D684" s="4"/>
     </row>
-    <row r="685">
+    <row r="685" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D685" s="4"/>
     </row>
-    <row r="686">
+    <row r="686" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D686" s="4"/>
     </row>
-    <row r="687">
+    <row r="687" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D687" s="4"/>
     </row>
-    <row r="688">
+    <row r="688" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D688" s="4"/>
     </row>
-    <row r="689">
+    <row r="689" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D689" s="4"/>
     </row>
-    <row r="690">
+    <row r="690" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D690" s="4"/>
     </row>
-    <row r="691">
+    <row r="691" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D691" s="4"/>
     </row>
-    <row r="692">
+    <row r="692" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D692" s="4"/>
     </row>
-    <row r="693">
+    <row r="693" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D693" s="4"/>
     </row>
-    <row r="694">
+    <row r="694" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D694" s="4"/>
     </row>
-    <row r="695">
+    <row r="695" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D695" s="4"/>
     </row>
-    <row r="696">
+    <row r="696" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D696" s="4"/>
     </row>
-    <row r="697">
+    <row r="697" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D697" s="4"/>
     </row>
-    <row r="698">
+    <row r="698" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D698" s="4"/>
     </row>
-    <row r="699">
+    <row r="699" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D699" s="4"/>
     </row>
-    <row r="700">
+    <row r="700" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D700" s="4"/>
     </row>
-    <row r="701">
+    <row r="701" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D701" s="4"/>
     </row>
-    <row r="702">
+    <row r="702" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D702" s="4"/>
     </row>
-    <row r="703">
+    <row r="703" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D703" s="4"/>
     </row>
-    <row r="704">
+    <row r="704" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D704" s="4"/>
     </row>
-    <row r="705">
+    <row r="705" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D705" s="4"/>
     </row>
-    <row r="706">
+    <row r="706" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D706" s="4"/>
     </row>
-    <row r="707">
+    <row r="707" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D707" s="4"/>
     </row>
-    <row r="708">
+    <row r="708" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D708" s="4"/>
     </row>
-    <row r="709">
+    <row r="709" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D709" s="4"/>
     </row>
-    <row r="710">
+    <row r="710" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D710" s="4"/>
     </row>
-    <row r="711">
+    <row r="711" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D711" s="4"/>
     </row>
-    <row r="712">
+    <row r="712" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D712" s="4"/>
     </row>
-    <row r="713">
+    <row r="713" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D713" s="4"/>
     </row>
-    <row r="714">
+    <row r="714" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D714" s="4"/>
     </row>
-    <row r="715">
+    <row r="715" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D715" s="4"/>
     </row>
-    <row r="716">
+    <row r="716" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D716" s="4"/>
     </row>
-    <row r="717">
+    <row r="717" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D717" s="4"/>
     </row>
-    <row r="718">
+    <row r="718" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D718" s="4"/>
     </row>
-    <row r="719">
+    <row r="719" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D719" s="4"/>
     </row>
-    <row r="720">
+    <row r="720" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D720" s="4"/>
     </row>
-    <row r="721">
+    <row r="721" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D721" s="4"/>
     </row>
-    <row r="722">
+    <row r="722" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D722" s="4"/>
     </row>
-    <row r="723">
+    <row r="723" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D723" s="4"/>
     </row>
-    <row r="724">
+    <row r="724" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D724" s="4"/>
     </row>
-    <row r="725">
+    <row r="725" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D725" s="4"/>
     </row>
-    <row r="726">
+    <row r="726" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D726" s="4"/>
     </row>
-    <row r="727">
+    <row r="727" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D727" s="4"/>
     </row>
-    <row r="728">
+    <row r="728" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D728" s="4"/>
     </row>
-    <row r="729">
+    <row r="729" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D729" s="4"/>
     </row>
-    <row r="730">
+    <row r="730" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D730" s="4"/>
     </row>
-    <row r="731">
+    <row r="731" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D731" s="4"/>
     </row>
-    <row r="732">
+    <row r="732" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D732" s="4"/>
     </row>
-    <row r="733">
+    <row r="733" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D733" s="4"/>
     </row>
-    <row r="734">
+    <row r="734" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D734" s="4"/>
     </row>
-    <row r="735">
+    <row r="735" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D735" s="4"/>
     </row>
-    <row r="736">
+    <row r="736" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D736" s="4"/>
     </row>
-    <row r="737">
+    <row r="737" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D737" s="4"/>
     </row>
-    <row r="738">
+    <row r="738" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D738" s="4"/>
     </row>
-    <row r="739">
+    <row r="739" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D739" s="4"/>
     </row>
-    <row r="740">
+    <row r="740" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D740" s="4"/>
     </row>
-    <row r="741">
+    <row r="741" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D741" s="4"/>
     </row>
-    <row r="742">
+    <row r="742" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D742" s="4"/>
     </row>
-    <row r="743">
+    <row r="743" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D743" s="4"/>
     </row>
-    <row r="744">
+    <row r="744" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D744" s="4"/>
     </row>
-    <row r="745">
+    <row r="745" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D745" s="4"/>
     </row>
-    <row r="746">
+    <row r="746" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D746" s="4"/>
     </row>
-    <row r="747">
+    <row r="747" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D747" s="4"/>
     </row>
-    <row r="748">
+    <row r="748" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D748" s="4"/>
     </row>
-    <row r="749">
+    <row r="749" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D749" s="4"/>
     </row>
-    <row r="750">
+    <row r="750" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D750" s="4"/>
     </row>
-    <row r="751">
+    <row r="751" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D751" s="4"/>
     </row>
-    <row r="752">
+    <row r="752" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D752" s="4"/>
     </row>
-    <row r="753">
+    <row r="753" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D753" s="4"/>
     </row>
-    <row r="754">
+    <row r="754" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D754" s="4"/>
     </row>
-    <row r="755">
+    <row r="755" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D755" s="4"/>
     </row>
-    <row r="756">
+    <row r="756" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D756" s="4"/>
     </row>
-    <row r="757">
+    <row r="757" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D757" s="4"/>
     </row>
-    <row r="758">
+    <row r="758" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D758" s="4"/>
     </row>
-    <row r="759">
+    <row r="759" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D759" s="4"/>
     </row>
-    <row r="760">
+    <row r="760" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D760" s="4"/>
     </row>
-    <row r="761">
+    <row r="761" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D761" s="4"/>
     </row>
-    <row r="762">
+    <row r="762" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D762" s="4"/>
     </row>
-    <row r="763">
+    <row r="763" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D763" s="4"/>
     </row>
-    <row r="764">
+    <row r="764" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D764" s="4"/>
     </row>
-    <row r="765">
+    <row r="765" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D765" s="4"/>
     </row>
-    <row r="766">
+    <row r="766" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D766" s="4"/>
     </row>
-    <row r="767">
+    <row r="767" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D767" s="4"/>
     </row>
-    <row r="768">
+    <row r="768" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D768" s="4"/>
     </row>
-    <row r="769">
+    <row r="769" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D769" s="4"/>
     </row>
-    <row r="770">
+    <row r="770" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D770" s="4"/>
     </row>
-    <row r="771">
+    <row r="771" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D771" s="4"/>
     </row>
-    <row r="772">
+    <row r="772" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D772" s="4"/>
     </row>
-    <row r="773">
+    <row r="773" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D773" s="4"/>
     </row>
-    <row r="774">
+    <row r="774" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D774" s="4"/>
     </row>
-    <row r="775">
+    <row r="775" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D775" s="4"/>
     </row>
-    <row r="776">
+    <row r="776" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D776" s="4"/>
     </row>
-    <row r="777">
+    <row r="777" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D777" s="4"/>
     </row>
-    <row r="778">
+    <row r="778" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D778" s="4"/>
     </row>
-    <row r="779">
+    <row r="779" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D779" s="4"/>
     </row>
-    <row r="780">
+    <row r="780" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D780" s="4"/>
     </row>
-    <row r="781">
+    <row r="781" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D781" s="4"/>
     </row>
-    <row r="782">
+    <row r="782" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D782" s="4"/>
     </row>
-    <row r="783">
+    <row r="783" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D783" s="4"/>
     </row>
-    <row r="784">
+    <row r="784" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D784" s="4"/>
     </row>
-    <row r="785">
+    <row r="785" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D785" s="4"/>
     </row>
-    <row r="786">
+    <row r="786" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D786" s="4"/>
     </row>
-    <row r="787">
+    <row r="787" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D787" s="4"/>
     </row>
-    <row r="788">
+    <row r="788" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D788" s="4"/>
     </row>
-    <row r="789">
+    <row r="789" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D789" s="4"/>
     </row>
-    <row r="790">
+    <row r="790" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D790" s="4"/>
     </row>
-    <row r="791">
+    <row r="791" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D791" s="4"/>
     </row>
-    <row r="792">
+    <row r="792" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D792" s="4"/>
     </row>
-    <row r="793">
+    <row r="793" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D793" s="4"/>
     </row>
-    <row r="794">
+    <row r="794" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D794" s="4"/>
     </row>
-    <row r="795">
+    <row r="795" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D795" s="4"/>
     </row>
-    <row r="796">
+    <row r="796" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D796" s="4"/>
     </row>
-    <row r="797">
+    <row r="797" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D797" s="4"/>
     </row>
-    <row r="798">
+    <row r="798" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D798" s="4"/>
     </row>
-    <row r="799">
+    <row r="799" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D799" s="4"/>
     </row>
-    <row r="800">
+    <row r="800" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D800" s="4"/>
     </row>
-    <row r="801">
+    <row r="801" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D801" s="4"/>
     </row>
-    <row r="802">
+    <row r="802" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D802" s="4"/>
     </row>
-    <row r="803">
+    <row r="803" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D803" s="4"/>
     </row>
-    <row r="804">
+    <row r="804" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D804" s="4"/>
     </row>
-    <row r="805">
+    <row r="805" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D805" s="4"/>
     </row>
-    <row r="806">
+    <row r="806" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D806" s="4"/>
     </row>
-    <row r="807">
+    <row r="807" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D807" s="4"/>
     </row>
-    <row r="808">
+    <row r="808" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D808" s="4"/>
     </row>
-    <row r="809">
+    <row r="809" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D809" s="4"/>
     </row>
-    <row r="810">
+    <row r="810" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D810" s="4"/>
     </row>
-    <row r="811">
+    <row r="811" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D811" s="4"/>
     </row>
-    <row r="812">
+    <row r="812" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D812" s="4"/>
     </row>
-    <row r="813">
+    <row r="813" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D813" s="4"/>
     </row>
-    <row r="814">
+    <row r="814" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D814" s="4"/>
     </row>
-    <row r="815">
+    <row r="815" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D815" s="4"/>
     </row>
-    <row r="816">
+    <row r="816" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D816" s="4"/>
     </row>
-    <row r="817">
+    <row r="817" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D817" s="4"/>
     </row>
-    <row r="818">
+    <row r="818" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D818" s="4"/>
     </row>
-    <row r="819">
+    <row r="819" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D819" s="4"/>
     </row>
-    <row r="820">
+    <row r="820" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D820" s="4"/>
     </row>
-    <row r="821">
+    <row r="821" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D821" s="4"/>
     </row>
-    <row r="822">
+    <row r="822" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D822" s="4"/>
     </row>
-    <row r="823">
+    <row r="823" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D823" s="4"/>
     </row>
-    <row r="824">
+    <row r="824" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D824" s="4"/>
     </row>
-    <row r="825">
+    <row r="825" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D825" s="4"/>
     </row>
-    <row r="826">
+    <row r="826" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D826" s="4"/>
     </row>
-    <row r="827">
+    <row r="827" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D827" s="4"/>
     </row>
-    <row r="828">
+    <row r="828" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D828" s="4"/>
     </row>
-    <row r="829">
+    <row r="829" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D829" s="4"/>
     </row>
-    <row r="830">
+    <row r="830" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D830" s="4"/>
     </row>
-    <row r="831">
+    <row r="831" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D831" s="4"/>
     </row>
-    <row r="832">
+    <row r="832" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D832" s="4"/>
     </row>
-    <row r="833">
+    <row r="833" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D833" s="4"/>
     </row>
-    <row r="834">
+    <row r="834" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D834" s="4"/>
     </row>
-    <row r="835">
+    <row r="835" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D835" s="4"/>
     </row>
-    <row r="836">
+    <row r="836" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D836" s="4"/>
     </row>
-    <row r="837">
+    <row r="837" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D837" s="4"/>
     </row>
-    <row r="838">
+    <row r="838" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D838" s="4"/>
     </row>
-    <row r="839">
+    <row r="839" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D839" s="4"/>
     </row>
-    <row r="840">
+    <row r="840" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D840" s="4"/>
     </row>
-    <row r="841">
+    <row r="841" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D841" s="4"/>
     </row>
-    <row r="842">
+    <row r="842" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D842" s="4"/>
     </row>
-    <row r="843">
+    <row r="843" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D843" s="4"/>
     </row>
-    <row r="844">
+    <row r="844" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D844" s="4"/>
     </row>
-    <row r="845">
+    <row r="845" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D845" s="4"/>
     </row>
-    <row r="846">
+    <row r="846" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D846" s="4"/>
     </row>
-    <row r="847">
+    <row r="847" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D847" s="4"/>
     </row>
-    <row r="848">
+    <row r="848" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D848" s="4"/>
     </row>
-    <row r="849">
+    <row r="849" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D849" s="4"/>
     </row>
-    <row r="850">
+    <row r="850" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D850" s="4"/>
     </row>
-    <row r="851">
+    <row r="851" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D851" s="4"/>
     </row>
-    <row r="852">
+    <row r="852" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D852" s="4"/>
     </row>
-    <row r="853">
+    <row r="853" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D853" s="4"/>
     </row>
-    <row r="854">
+    <row r="854" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D854" s="4"/>
     </row>
-    <row r="855">
+    <row r="855" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D855" s="4"/>
     </row>
-    <row r="856">
+    <row r="856" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D856" s="4"/>
     </row>
-    <row r="857">
+    <row r="857" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D857" s="4"/>
     </row>
-    <row r="858">
+    <row r="858" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D858" s="4"/>
     </row>
-    <row r="859">
+    <row r="859" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D859" s="4"/>
     </row>
-    <row r="860">
+    <row r="860" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D860" s="4"/>
     </row>
-    <row r="861">
+    <row r="861" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D861" s="4"/>
     </row>
-    <row r="862">
+    <row r="862" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D862" s="4"/>
     </row>
-    <row r="863">
+    <row r="863" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D863" s="4"/>
     </row>
-    <row r="864">
+    <row r="864" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D864" s="4"/>
     </row>
-    <row r="865">
+    <row r="865" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D865" s="4"/>
     </row>
-    <row r="866">
+    <row r="866" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D866" s="4"/>
     </row>
-    <row r="867">
+    <row r="867" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D867" s="4"/>
     </row>
-    <row r="868">
+    <row r="868" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D868" s="4"/>
     </row>
-    <row r="869">
+    <row r="869" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D869" s="4"/>
     </row>
-    <row r="870">
+    <row r="870" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D870" s="4"/>
     </row>
-    <row r="871">
+    <row r="871" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D871" s="4"/>
     </row>
-    <row r="872">
+    <row r="872" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D872" s="4"/>
     </row>
-    <row r="873">
+    <row r="873" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D873" s="4"/>
     </row>
-    <row r="874">
+    <row r="874" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D874" s="4"/>
     </row>
-    <row r="875">
+    <row r="875" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D875" s="4"/>
     </row>
-    <row r="876">
+    <row r="876" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D876" s="4"/>
     </row>
-    <row r="877">
+    <row r="877" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D877" s="4"/>
     </row>
-    <row r="878">
+    <row r="878" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D878" s="4"/>
     </row>
-    <row r="879">
+    <row r="879" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D879" s="4"/>
     </row>
-    <row r="880">
+    <row r="880" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D880" s="4"/>
     </row>
-    <row r="881">
+    <row r="881" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D881" s="4"/>
     </row>
-    <row r="882">
+    <row r="882" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D882" s="4"/>
     </row>
-    <row r="883">
+    <row r="883" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D883" s="4"/>
     </row>
-    <row r="884">
+    <row r="884" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D884" s="4"/>
     </row>
-    <row r="885">
+    <row r="885" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D885" s="4"/>
     </row>
-    <row r="886">
+    <row r="886" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D886" s="4"/>
     </row>
-    <row r="887">
+    <row r="887" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D887" s="4"/>
     </row>
-    <row r="888">
+    <row r="888" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D888" s="4"/>
     </row>
-    <row r="889">
+    <row r="889" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D889" s="4"/>
     </row>
-    <row r="890">
+    <row r="890" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D890" s="4"/>
     </row>
-    <row r="891">
+    <row r="891" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D891" s="4"/>
     </row>
-    <row r="892">
+    <row r="892" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D892" s="4"/>
     </row>
-    <row r="893">
+    <row r="893" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D893" s="4"/>
     </row>
-    <row r="894">
+    <row r="894" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D894" s="4"/>
     </row>
-    <row r="895">
+    <row r="895" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D895" s="4"/>
     </row>
-    <row r="896">
+    <row r="896" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D896" s="4"/>
     </row>
-    <row r="897">
+    <row r="897" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D897" s="4"/>
     </row>
-    <row r="898">
+    <row r="898" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D898" s="4"/>
     </row>
-    <row r="899">
+    <row r="899" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D899" s="4"/>
     </row>
-    <row r="900">
+    <row r="900" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D900" s="4"/>
     </row>
-    <row r="901">
+    <row r="901" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D901" s="4"/>
     </row>
-    <row r="902">
+    <row r="902" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D902" s="4"/>
     </row>
-    <row r="903">
+    <row r="903" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D903" s="4"/>
     </row>
-    <row r="904">
+    <row r="904" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D904" s="4"/>
     </row>
-    <row r="905">
+    <row r="905" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D905" s="4"/>
     </row>
-    <row r="906">
+    <row r="906" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D906" s="4"/>
     </row>
-    <row r="907">
+    <row r="907" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D907" s="4"/>
     </row>
-    <row r="908">
+    <row r="908" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D908" s="4"/>
     </row>
-    <row r="909">
+    <row r="909" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D909" s="4"/>
     </row>
-    <row r="910">
+    <row r="910" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D910" s="4"/>
     </row>
-    <row r="911">
+    <row r="911" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D911" s="4"/>
     </row>
-    <row r="912">
+    <row r="912" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D912" s="4"/>
     </row>
-    <row r="913">
+    <row r="913" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D913" s="4"/>
     </row>
-    <row r="914">
+    <row r="914" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D914" s="4"/>
     </row>
-    <row r="915">
+    <row r="915" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D915" s="4"/>
     </row>
-    <row r="916">
+    <row r="916" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D916" s="4"/>
     </row>
-    <row r="917">
+    <row r="917" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D917" s="4"/>
     </row>
-    <row r="918">
+    <row r="918" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D918" s="4"/>
     </row>
-    <row r="919">
+    <row r="919" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D919" s="4"/>
     </row>
-    <row r="920">
+    <row r="920" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D920" s="4"/>
     </row>
-    <row r="921">
+    <row r="921" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D921" s="4"/>
     </row>
-    <row r="922">
+    <row r="922" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D922" s="4"/>
     </row>
-    <row r="923">
+    <row r="923" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D923" s="4"/>
     </row>
-    <row r="924">
+    <row r="924" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D924" s="4"/>
     </row>
-    <row r="925">
+    <row r="925" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D925" s="4"/>
     </row>
-    <row r="926">
+    <row r="926" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D926" s="4"/>
     </row>
-    <row r="927">
+    <row r="927" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D927" s="4"/>
     </row>
-    <row r="928">
+    <row r="928" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D928" s="4"/>
     </row>
-    <row r="929">
+    <row r="929" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D929" s="4"/>
     </row>
-    <row r="930">
+    <row r="930" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D930" s="4"/>
     </row>
-    <row r="931">
+    <row r="931" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D931" s="4"/>
     </row>
-    <row r="932">
+    <row r="932" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D932" s="4"/>
     </row>
-    <row r="933">
+    <row r="933" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D933" s="4"/>
     </row>
-    <row r="934">
+    <row r="934" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D934" s="4"/>
     </row>
-    <row r="935">
+    <row r="935" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D935" s="4"/>
     </row>
-    <row r="936">
+    <row r="936" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D936" s="4"/>
     </row>
-    <row r="937">
+    <row r="937" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D937" s="4"/>
     </row>
-    <row r="938">
+    <row r="938" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D938" s="4"/>
     </row>
-    <row r="939">
+    <row r="939" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D939" s="4"/>
     </row>
-    <row r="940">
+    <row r="940" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D940" s="4"/>
     </row>
-    <row r="941">
+    <row r="941" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D941" s="4"/>
     </row>
-    <row r="942">
+    <row r="942" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D942" s="4"/>
     </row>
-    <row r="943">
+    <row r="943" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D943" s="4"/>
     </row>
-    <row r="944">
+    <row r="944" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D944" s="4"/>
     </row>
-    <row r="945">
+    <row r="945" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D945" s="4"/>
     </row>
-    <row r="946">
+    <row r="946" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D946" s="4"/>
     </row>
-    <row r="947">
+    <row r="947" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D947" s="4"/>
     </row>
-    <row r="948">
+    <row r="948" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D948" s="4"/>
     </row>
-    <row r="949">
+    <row r="949" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D949" s="4"/>
     </row>
-    <row r="950">
+    <row r="950" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D950" s="4"/>
     </row>
-    <row r="951">
+    <row r="951" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D951" s="4"/>
     </row>
-    <row r="952">
+    <row r="952" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D952" s="4"/>
     </row>
-    <row r="953">
+    <row r="953" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D953" s="4"/>
     </row>
-    <row r="954">
+    <row r="954" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D954" s="4"/>
     </row>
-    <row r="955">
+    <row r="955" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D955" s="4"/>
     </row>
-    <row r="956">
+    <row r="956" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D956" s="4"/>
     </row>
-    <row r="957">
+    <row r="957" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D957" s="4"/>
     </row>
-    <row r="958">
+    <row r="958" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D958" s="4"/>
     </row>
-    <row r="959">
+    <row r="959" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D959" s="4"/>
     </row>
-    <row r="960">
+    <row r="960" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D960" s="4"/>
     </row>
-    <row r="961">
+    <row r="961" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D961" s="4"/>
     </row>
-    <row r="962">
+    <row r="962" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D962" s="4"/>
     </row>
-    <row r="963">
+    <row r="963" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D963" s="4"/>
     </row>
-    <row r="964">
+    <row r="964" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D964" s="4"/>
     </row>
-    <row r="965">
+    <row r="965" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D965" s="4"/>
     </row>
-    <row r="966">
+    <row r="966" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D966" s="4"/>
     </row>
-    <row r="967">
+    <row r="967" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D967" s="4"/>
     </row>
-    <row r="968">
+    <row r="968" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D968" s="4"/>
     </row>
-    <row r="969">
+    <row r="969" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D969" s="4"/>
     </row>
-    <row r="970">
+    <row r="970" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D970" s="4"/>
     </row>
-    <row r="971">
+    <row r="971" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D971" s="4"/>
     </row>
-    <row r="972">
+    <row r="972" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D972" s="4"/>
     </row>
-    <row r="973">
+    <row r="973" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D973" s="4"/>
     </row>
-    <row r="974">
+    <row r="974" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D974" s="4"/>
     </row>
-    <row r="975">
+    <row r="975" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D975" s="4"/>
     </row>
-    <row r="976">
+    <row r="976" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D976" s="4"/>
     </row>
-    <row r="977">
+    <row r="977" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D977" s="4"/>
     </row>
-    <row r="978">
+    <row r="978" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D978" s="4"/>
     </row>
-    <row r="979">
+    <row r="979" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D979" s="4"/>
     </row>
-    <row r="980">
+    <row r="980" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D980" s="4"/>
     </row>
-    <row r="981">
+    <row r="981" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D981" s="4"/>
     </row>
-    <row r="982">
+    <row r="982" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D982" s="4"/>
     </row>
-    <row r="983">
+    <row r="983" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D983" s="4"/>
     </row>
-    <row r="984">
+    <row r="984" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D984" s="4"/>
     </row>
-    <row r="985">
+    <row r="985" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D985" s="4"/>
     </row>
-    <row r="986">
+    <row r="986" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D986" s="4"/>
     </row>
-    <row r="987">
+    <row r="987" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D987" s="4"/>
     </row>
-    <row r="988">
+    <row r="988" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D988" s="4"/>
     </row>
-    <row r="989">
+    <row r="989" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D989" s="4"/>
     </row>
-    <row r="990">
+    <row r="990" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D990" s="4"/>
     </row>
-    <row r="991">
+    <row r="991" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D991" s="4"/>
     </row>
-    <row r="992">
+    <row r="992" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D992" s="4"/>
     </row>
-    <row r="993">
+    <row r="993" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D993" s="4"/>
     </row>
-    <row r="994">
+    <row r="994" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D994" s="4"/>
     </row>
-    <row r="995">
+    <row r="995" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D995" s="4"/>
     </row>
-    <row r="996">
+    <row r="996" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D996" s="4"/>
     </row>
-    <row r="997">
+    <row r="997" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D997" s="4"/>
     </row>
-    <row r="998">
+    <row r="998" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D998" s="4"/>
     </row>
-    <row r="999">
+    <row r="999" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D999" s="4"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D1000" s="4"/>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B24">
       <formula1>"Динар,Даниил"</formula1>
     </dataValidation>
@@ -4209,26 +4384,27 @@
       <formula1>"Высокий,Средний,Низкий"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="61.13"/>
-    <col customWidth="1" min="4" max="4" width="18.13"/>
-    <col customWidth="1" min="5" max="5" width="16.13"/>
+    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +4421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" ht="99.0" customHeight="1">
+    <row r="2" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4262,7 +4438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -4276,7 +4452,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -4290,7 +4466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
@@ -4304,7 +4480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -4318,7 +4494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
@@ -4332,7 +4508,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -4347,487 +4523,1364 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2">
       <formula1>"Ожидает проверки,Пройдено,Не пройдено"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="16.63"/>
-    <col customWidth="1" min="7" max="7" width="22.25"/>
-    <col customWidth="1" min="8" max="8" width="35.5"/>
-    <col customWidth="1" min="9" max="9" width="22.38"/>
-    <col customWidth="1" min="10" max="10" width="15.75"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="K1" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="306" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="F9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.38"/>
-    <col customWidth="1" min="5" max="5" width="14.75"/>
-    <col customWidth="1" min="10" max="10" width="43.5"/>
-    <col customWidth="1" min="11" max="11" width="19.5"/>
-    <col customWidth="1" min="12" max="13" width="18.75"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="408" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="E3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="I3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
@@ -4840,11 +5893,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2">
       <formula1>"Open,In Progress,Ready For Check,Closed,Rejected,Deferred,Reopened"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G13">
+      <formula1>"Open,Вариант 2"</formula1>
+    </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Чек лист" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -742,21 +742,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -785,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -814,14 +799,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,7 +1035,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4395,7 +4387,7 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4539,8 +4531,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4553,91 +4545,91 @@
     <col min="11" max="11" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -4646,211 +4638,211 @@
       <c r="H3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="1" t="s">
         <v>94</v>
       </c>
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="1" t="s">
         <v>99</v>
       </c>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="1" t="s">
         <v>113</v>
       </c>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" ht="306" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4940,7 +4932,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4951,548 +4942,550 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="43.42578125" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="408" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+    <row r="3" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    <row r="4" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+    <row r="5" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+    <row r="6" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="8" t="s">
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+    <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="8" t="s">
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="8" t="s">
+      <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="1" t="s">
         <v>149</v>
       </c>
     </row>

--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Чек лист" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="209">
   <si>
     <t>Название</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t xml:space="preserve">Выполнена авторизация в режиме пользователя, происходит переход на главную страницу с функционалом пользователя, данные отображаются корректно. </t>
+  </si>
+  <si>
+    <t>Проверка отображения в браузере Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Необходим браузер Mozilla Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыть браузер Mozilla Firefox. В </t>
   </si>
   <si>
     <t xml:space="preserve">Проверка правильности введённых данных при обмене. </t>
@@ -523,6 +532,81 @@
 11. Поле Номер Дома: не пустое, цифры, возможна 1 буква (кириллица), до 5 символов
 12. Поле Номер Строения: может быть пустым, 1 буква (кириллица) и число, до 2 знаков
 13. Поле Номер Квартиры: может быть пустым, до 3 знаков</t>
+  </si>
+  <si>
+    <t>Проверка отображения программного продукта в интернет-браузере Mozilla Firefox с разрешением экрана 1920х1080</t>
+  </si>
+  <si>
+    <t>Mar 14, 2024</t>
+  </si>
+  <si>
+    <t>Открытие программного продукта производится через интернет-браузер Mozilla Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открыть интернет-браузер Mozilla Firefox; 2. В строку ввода адреса ввести localhost:8080. </t>
+  </si>
+  <si>
+    <t>1. Откроется главная страница интернет-браузера Mozilla Firefox; 2. Откроется главная страница программного продукта</t>
+  </si>
+  <si>
+    <t>Проверка выполнена, все объекты программного продукта находятся на своём месте</t>
+  </si>
+  <si>
+    <t>Проверка отображения программного продукта в интернет-браузере Google Chrome с разрешением экрана 1920х1080</t>
+  </si>
+  <si>
+    <t>Открытие программного продукта производится через интернет-браузер Google Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открыть интернет-браузер Google Chrome; 2. В строку ввода адреса ввести localhost:8080. </t>
+  </si>
+  <si>
+    <t>1. Откроется главная страница интернет-браузера Google Chrome; 2. Откроется главная страница программного продукта</t>
+  </si>
+  <si>
+    <t>Проверка отображения программного продукта в интернет-браузере Mozilla Firefox с разрешением экрана 1366х768</t>
+  </si>
+  <si>
+    <t>Проверка отображения программного продукта в интернет-браузере Google Chrome с разрешением экрана 1366х768</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности программного продукта</t>
+  </si>
+  <si>
+    <t>Для работы программного продукта необходимо соединение с интернетом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открыть интернет-браузер; 2. В строку ввода адреса ввести localhost:8080. </t>
+  </si>
+  <si>
+    <t>1. Откроется главная страница интернет-браузера; 2. Откроется главная страница программного продукта</t>
+  </si>
+  <si>
+    <t>Проверка выполнена, программный продукт работает</t>
+  </si>
+  <si>
+    <t>Проверка создания заявки на обмен</t>
+  </si>
+  <si>
+    <t>Находиться на сайте localhost:8080 и быть авторизованным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на ссылку Обмен; 2. Заполнить данные по книге, предлагаемой к обмену, в полях ввода; 3. Заполнить данные по книге, запрашиваемой к обмену, в полях ввода; 4. Нажать кнопку Обменяться; 5. Заполнить данные по доставке в полях ввода; 6. Нажать кнопку Обмен. </t>
+  </si>
+  <si>
+    <t>1. Откроется страница сайта с формой заполнения данных по книге, предлагаемой к обмену, и книге, запрашиваемой к обмену; 2. Поля ввода по книге, предлагаемой к обмену, заполнены; 3. Поля ввода по книге, запрашиваемой к обмену, заполнены; 4. Откроется страница с формой заполнения данных по доставке; 5. Поля ввода по доставке заполнены; 6. Заявка создана</t>
+  </si>
+  <si>
+    <t>Проверка выполнена, заявка на обмен книгами создана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка создания заявки на обмен </t>
+  </si>
+  <si>
+    <t>1. Откроется страница сайта с формой заполнения данных по книге, предлагаемой к обмену, и книге, запрашиваемой к обмену; 2. Поля ввода по книге, предлагаемой к обмену, заполнены; 3. Поля ввода по книге, запрашиваемой к обмену, заполнены; 4. Откроется страница с формой заполнения данных по доставке; 5. Поля ввода по доставке заполнены; 6. Откроется страница с формой авторизации</t>
+  </si>
+  <si>
+    <t>Проверка выполнена, заявка не была создана, т.к. пользователь не авторизован</t>
   </si>
   <si>
     <t>Кртакое описание</t>
@@ -790,6 +874,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -799,7 +884,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,7 +1119,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1326,192 +1410,126 @@
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C45" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -4369,10 +4387,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B20">
       <formula1>"Динар,Даниил"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C49">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C20">
       <formula1>"Высокий,Средний,Низкий"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4387,7 +4405,7 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4472,46 +4490,57 @@
         <v>64</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4531,8 +4560,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4547,13 +4576,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4562,10 +4591,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>47</v>
@@ -4574,10 +4603,10 @@
         <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
@@ -4588,30 +4617,30 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -4621,106 +4650,106 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -4729,31 +4758,31 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -4762,31 +4791,31 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -4795,31 +4824,31 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -4828,107 +4857,247 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="H16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4942,8 +5111,8 @@
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4957,44 +5126,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="I1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>133</v>
+      <c r="M1" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="408" x14ac:dyDescent="0.2">
@@ -5002,40 +5171,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
@@ -5043,40 +5212,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
@@ -5084,40 +5253,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
@@ -5125,40 +5294,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
@@ -5166,40 +5335,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
@@ -5207,40 +5376,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
@@ -5248,22 +5417,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>5</v>
@@ -5272,16 +5441,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
@@ -5289,22 +5458,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>5</v>
@@ -5313,16 +5482,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
@@ -5330,22 +5499,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>5</v>
@@ -5354,16 +5523,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
@@ -5371,22 +5540,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>5</v>
@@ -5395,16 +5564,16 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -5412,22 +5581,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
@@ -5436,16 +5605,16 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -5453,22 +5622,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>5</v>
@@ -5477,403 +5646,401 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">

--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Чек лист" sheetId="1" r:id="rId1"/>
-    <sheet name="Тест кейсы" sheetId="2" r:id="rId2"/>
-    <sheet name="Тест-кейсы 2.0" sheetId="3" r:id="rId3"/>
-    <sheet name="Баг-репорты" sheetId="4" r:id="rId4"/>
+    <sheet name="Тест-кейсы" sheetId="3" r:id="rId2"/>
+    <sheet name="Баг-репорты" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="190">
   <si>
     <t>Название</t>
   </si>
@@ -162,111 +161,13 @@
     <t>Проверить предложение гостюзарегистрировться при выполнении действий на сайте</t>
   </si>
   <si>
-    <t>Предусловия</t>
-  </si>
-  <si>
     <t>Шаги</t>
   </si>
   <si>
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Выйти из аккаунта</t>
-  </si>
-  <si>
-    <t>Открыть страницу авторизации.
-Ввести логин в поле логина.
-Ввести пароль в поле пароля.
-Нажать на кнопку входа.
-Проверить выполнен ли вход.
-Проверить в тот ли аккаунт выполнен вход.</t>
-  </si>
-  <si>
-    <t>Выполнен вход в аккаунт, данные отображаются корректно.</t>
-  </si>
-  <si>
-    <t>Ожидает проверки</t>
-  </si>
-  <si>
-    <t>Регистрация аккаунта</t>
-  </si>
-  <si>
-    <t>Открыть страницу регистрации. Ввести электронную почту в поле Почта. Ввести имя в поле Имя. Ввести логин в поле Придумайте логин. Ввести пароль в поле Придумайте пароль. Нажать на кнопку Зарегистрироваться. Проверить, зарегистрировался ли аккаунт. Проверить, регистрируется ли аккаунт с идентичны ми данными уже имеющегося аккаунта.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнена регистрация, происходит переход на страницу авторизации, данные отображаются корректно. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнение входа от Администратора. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Администратор при вводе своих данных должен авторизоваться в режиме Администратора с расширенным функционалом. </t>
-  </si>
-  <si>
-    <t>Открыть страницу авторизации. Ввести специальный логин в поле Логин. Ввести специальный пароль в поле Пароль. Нажать на кнопку Войти. Убедиться, что авторизация прошла успешно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнена авторизация от имени Администратора, происходит переход на главную страницу с расширенным функционалом, данные отображаются корректно. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнение входа от лица обычного пользователя. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пользователь при вводе своих данных должен авторизоваться и получить доступ для пользователя. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открыть страницу авторизации. Ввести логин в поле Логин. Ввести пароль в поле Пароль. Нажать на кнопку Войти. Убедиться, что авторизация прошла успешно. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнена авторизация в режиме пользователя, происходит переход на главную страницу с функционалом пользователя, данные отображаются корректно. </t>
-  </si>
-  <si>
-    <t>Проверка отображения в браузере Mozilla Firefox</t>
-  </si>
-  <si>
-    <t>Необходим браузер Mozilla Firefox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открыть браузер Mozilla Firefox. В </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка правильности введённых данных при обмене. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пользователь должен подтвердить правильность введённых данных при обмене. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нажать на главной странице кнопку Начать обмен. Заполнить все поля соответствующей информацией. Нажать кнопку Начать обмен. Убедиться, что появится всплывающее окно-уведомление, которое гласит, что было отправлено смс-уведомление с кодом подтверждения. Нажать кнопку на всплывающем окне Ввести код. Убедиться, что появилось поле для ввода кода подтверждения. Убедиться, что смс-уведомление с кодом подтверждения пришло пользователю. Ввести код подтверждения из смс-уведомления в поле для ввода кода подтверждения. Нажать кнопку Готово. Убедиться, что подтверждение данных пользователя прошло успешно. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пользователь подтвердил свои данные при помощи кода подтверждения, полученного из смс-уведомления. </t>
-  </si>
-  <si>
-    <t>Проверить ограничение доступа для гостя</t>
-  </si>
-  <si>
-    <t>У гостя не должно быть возможности участвовать в обменах, будучи неавторизованным</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открыть главную страницу Web-приложения. Нажать на кнопку Начать обмен. Убедиться, что вместо того чтобы перейти на страницу с обменом, гостя перенаправит на страницу с авторизацией. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">После нажатия на кнопку Начать обмен незарегистрированный пользователь попадёт на страницу авторизации. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить предложение неавторизованному гостю пройти авторизацию при выполнении каких-либо действий на сайте.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Неавторизованный пользователь не имеет доступа к функционалу сайтах. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Открыть главную страницу Web-приложения. Попытаться перейти по какой-либо ссылке, начать обмен или нажать любую кнопку, кроме кнопок Авторизация и Регистрация. Убедиться, что при выполнении действий с функционалом Web-приложения неавторизованный пользователь будет переходить на страницу с авторизацией. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При взаимодействии с функционалом Web-приложения неавторизованный пользователь перейдёт на страницу с авторизацией. </t>
   </si>
   <si>
     <t>ID</t>
@@ -607,6 +508,51 @@
   </si>
   <si>
     <t>Проверка выполнена, заявка не была создана, т.к. пользователь не авторизован</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка предложения неавторизованному гостю пройти авторизацию при выполнении каких-либо действий на сайте.  
+</t>
+  </si>
+  <si>
+    <t>Mar 17, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Перейти на сайт localhost:8080. 
+2. Попытаться перейти по какой-либо ссылке, начать обмен или нажать любую кнопку, кроме кнопок Авторизация и Регистрация. </t>
+  </si>
+  <si>
+    <t>1. Откроется главная страница сайта
+2. Произойдет переход на страницу с авторизацией</t>
+  </si>
+  <si>
+    <t>Проверка выполнена, неавторизованный пользователь не имеет доступа к функционалу</t>
+  </si>
+  <si>
+    <t>Проверка поля ввода Автор на правильность заполнения</t>
+  </si>
+  <si>
+    <t>Находиться на странице с формой для заполнения данных для обмена</t>
+  </si>
+  <si>
+    <t>1. Ввести цифры в поле ввода
+2. Ввести спецсимволы в поле ввода
+3. Ввести символы латиницы
+4. Ввести символы кириллицы</t>
+  </si>
+  <si>
+    <t>1. Поле заполнено неправильно
+2. Поле заполнено неправильно
+3. Поле заполнено верно
+4. Поле заполнено верно</t>
+  </si>
+  <si>
+    <t>Проверка выполнена, поле ввода Автор считывает только символы латиницы и кириллицы</t>
+  </si>
+  <si>
+    <t>Проверка поля ввода Фамилия на правильность заполнения</t>
+  </si>
+  <si>
+    <t>Проверка выполнена, поле ввода Фамилия считывает только символы латиницы и кириллицы</t>
   </si>
   <si>
     <t>Кртакое описание</t>
@@ -854,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -868,16 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4403,166 +4340,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="61.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2">
-      <formula1>"Ожидает проверки,Пройдено,Не пройдено"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4574,15 +4354,15 @@
     <col min="11" max="11" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4591,25 +4371,25 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4617,32 +4397,32 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4650,106 +4430,106 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>95</v>
+        <v>58</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="191.25" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -4758,31 +4538,31 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -4791,31 +4571,31 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="165.75" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -4824,31 +4604,31 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="306" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -4857,65 +4637,65 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -4924,62 +4704,62 @@
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -4988,62 +4768,62 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="229.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -5052,68 +4832,294 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="242.25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="G19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5125,314 +5131,314 @@
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="408" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="I1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>167</v>
+      <c r="B2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>5</v>
@@ -5441,39 +5447,39 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>5</v>
@@ -5482,39 +5488,39 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>5</v>
@@ -5523,39 +5529,39 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>5</v>
@@ -5564,39 +5570,39 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
@@ -5605,39 +5611,39 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>5</v>
@@ -5646,401 +5652,401 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">

--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yak1mara\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="2"/>
-  </bookViews>
   <sheets>
-    <sheet name="Чек лист" sheetId="1" r:id="rId1"/>
-    <sheet name="Тест-кейсы" sheetId="3" r:id="rId2"/>
-    <sheet name="Баг-репорты" sheetId="4" r:id="rId3"/>
+    <sheet state="visible" name="Чек лист" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Тест кейсы" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Тест-кейсы 2.0" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Баг-репорты" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="245">
   <si>
     <t>Название</t>
   </si>
@@ -161,13 +154,111 @@
     <t>Проверить предложение гостюзарегистрировться при выполнении действий на сайте</t>
   </si>
   <si>
+    <t>Предусловия</t>
+  </si>
+  <si>
     <t>Шаги</t>
   </si>
   <si>
     <t>Ожидаемый результат</t>
   </si>
   <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>Выйти из аккаунта</t>
+  </si>
+  <si>
+    <t>Открыть страницу авторизации.
+Ввести логин в поле логина.
+Ввести пароль в поле пароля.
+Нажать на кнопку входа.
+Проверить выполнен ли вход.
+Проверить в тот ли аккаунт выполнен вход.</t>
+  </si>
+  <si>
+    <t>Выполнен вход в аккаунт, данные отображаются корректно.</t>
+  </si>
+  <si>
+    <t>Ожидает проверки</t>
+  </si>
+  <si>
+    <t>Регистрация аккаунта</t>
+  </si>
+  <si>
+    <t>Открыть страницу регистрации. Ввести электронную почту в поле Почта. Ввести имя в поле Имя. Ввести логин в поле Придумайте логин. Ввести пароль в поле Придумайте пароль. Нажать на кнопку Зарегистрироваться. Проверить, зарегистрировался ли аккаунт. Проверить, регистрируется ли аккаунт с идентичны ми данными уже имеющегося аккаунта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнена регистрация, происходит переход на страницу авторизации, данные отображаются корректно. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение входа от Администратора. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Администратор при вводе своих данных должен авторизоваться в режиме Администратора с расширенным функционалом. </t>
+  </si>
+  <si>
+    <t>Открыть страницу авторизации. Ввести специальный логин в поле Логин. Ввести специальный пароль в поле Пароль. Нажать на кнопку Войти. Убедиться, что авторизация прошла успешно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнена авторизация от имени Администратора, происходит переход на главную страницу с расширенным функционалом, данные отображаются корректно. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение входа от лица обычного пользователя. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь при вводе своих данных должен авторизоваться и получить доступ для пользователя. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыть страницу авторизации. Ввести логин в поле Логин. Ввести пароль в поле Пароль. Нажать на кнопку Войти. Убедиться, что авторизация прошла успешно. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнена авторизация в режиме пользователя, происходит переход на главную страницу с функционалом пользователя, данные отображаются корректно. </t>
+  </si>
+  <si>
+    <t>Проверка отображения в браузере Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Необходим браузер Mozilla Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыть браузер Mozilla Firefox. В </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка правильности введённых данных при обмене. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь должен подтвердить правильность введённых данных при обмене. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать на главной странице кнопку Начать обмен. Заполнить все поля соответствующей информацией. Нажать кнопку Начать обмен. Убедиться, что появится всплывающее окно-уведомление, которое гласит, что было отправлено смс-уведомление с кодом подтверждения. Нажать кнопку на всплывающем окне Ввести код. Убедиться, что появилось поле для ввода кода подтверждения. Убедиться, что смс-уведомление с кодом подтверждения пришло пользователю. Ввести код подтверждения из смс-уведомления в поле для ввода кода подтверждения. Нажать кнопку Готово. Убедиться, что подтверждение данных пользователя прошло успешно. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь подтвердил свои данные при помощи кода подтверждения, полученного из смс-уведомления. </t>
+  </si>
+  <si>
+    <t>Проверить ограничение доступа для гостя</t>
+  </si>
+  <si>
+    <t>У гостя не должно быть возможности участвовать в обменах, будучи неавторизованным</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыть главную страницу Web-приложения. Нажать на кнопку Начать обмен. Убедиться, что вместо того чтобы перейти на страницу с обменом, гостя перенаправит на страницу с авторизацией. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">После нажатия на кнопку Начать обмен незарегистрированный пользователь попадёт на страницу авторизации. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить предложение неавторизованному гостю пройти авторизацию при выполнении каких-либо действий на сайте.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Неавторизованный пользователь не имеет доступа к функционалу сайтах. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыть главную страницу Web-приложения. Попытаться перейти по какой-либо ссылке, начать обмен или нажать любую кнопку, кроме кнопок Авторизация и Регистрация. Убедиться, что при выполнении действий с функционалом Web-приложения неавторизованный пользователь будет переходить на страницу с авторизацией. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При взаимодействии с функционалом Web-приложения неавторизованный пользователь перейдёт на страницу с авторизацией. </t>
   </si>
   <si>
     <t>ID</t>
@@ -745,31 +836,107 @@
     <t>1. Находясь на главной странице нажать на кнопку Регистрация
 2. Нажать на поле ввода Ник и ввести что-нибудь</t>
   </si>
+  <si>
+    <t>В поле начать обмен не подписано получаль и отправитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Находясь на главной странице нажать кнопку Начать обмен.
+2. Бланк для заполнения не подписан (Отправитель/получатель).
+</t>
+  </si>
+  <si>
+    <t>Бланк для заполнения данных не подписан.</t>
+  </si>
+  <si>
+    <t>Бланк для заполнения данных должен быть подписан Отправитель и получатель.</t>
+  </si>
+  <si>
+    <t>Область с жанром, состоянием и обложкой не на своем месте</t>
+  </si>
+  <si>
+    <t>1. Находясь на главной странице нажать кнопку Начать обмен.
+2. Облать с жанром, состоянием и обложкой находится в центре страницы.</t>
+  </si>
+  <si>
+    <t>Область с жанром, состояние, обложка находится в центре страницы</t>
+  </si>
+  <si>
+    <t>Область с жанром, состояние, обложка должна быть справа от бланков данных.</t>
+  </si>
+  <si>
+    <t>Символы в поле Ваша почта скрыты, как-будто это пароль</t>
+  </si>
+  <si>
+    <t>localhost:8081</t>
+  </si>
+  <si>
+    <t>Mar 5, 2025</t>
+  </si>
+  <si>
+    <t>1. Находясь на странице Задать вопрос.
+2. В поле Ваша почта ввести что-нибудь.</t>
+  </si>
+  <si>
+    <t>Вместо Тема обращения написано Тем обращения</t>
+  </si>
+  <si>
+    <t>localhost:8082</t>
+  </si>
+  <si>
+    <t>Mar 5, 2026</t>
+  </si>
+  <si>
+    <t>1. Находясь на странице Задать вопрос.
+2. Поле Тема обращения подписно не правильно.</t>
+  </si>
+  <si>
+    <t>Поле подписано неправильно</t>
+  </si>
+  <si>
+    <t>Поле должно быть подписано "Тема обращения"</t>
+  </si>
+  <si>
+    <t>Символы в поле Тема обращения скрыты, как будто это пароль</t>
+  </si>
+  <si>
+    <t>1. Находясь на странице Задать вопрос.
+2. В поле Тема обращения ввести что-нибудь.</t>
+  </si>
+  <si>
+    <t>Символы в поле Сообщение скрыты, как будто это пароль</t>
+  </si>
+  <si>
+    <t>localhost:8083</t>
+  </si>
+  <si>
+    <t>Mar 5, 2027</t>
+  </si>
+  <si>
+    <t>1. Находясь на странице Задать вопрос.
+2. В поле Сообщение ввести что-нибудь.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -779,7 +946,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -789,72 +956,89 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="17">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1044,28 +1228,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="25.5"/>
+    <col customWidth="1" min="2" max="2" width="15.0"/>
+    <col customWidth="1" min="4" max="4" width="22.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="32.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1163,7 +1344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +1358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +1372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1205,7 +1386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1219,7 +1400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1233,7 +1414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1261,7 +1442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1275,7 +1456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1289,7 +1470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1303,7 +1484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1317,7 +1498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1331,7 +1512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1345,2985 +1526,2985 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" s="1"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" s="1"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" s="1"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" s="1"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" s="1"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" s="1"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" s="1"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="C34" s="1"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="C42" s="1"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="C43" s="1"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="C44" s="1"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="C45" s="1"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="C46" s="1"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="C47" s="1"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="C48" s="1"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="C49" s="1"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136">
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139">
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148">
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150">
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155">
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157">
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158">
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160">
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164">
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166">
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167">
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169">
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171">
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172">
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173">
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175">
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176">
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177">
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178">
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179">
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180">
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182">
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183">
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184">
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185">
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186">
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187">
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188">
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189">
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190">
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191">
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192">
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193">
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194">
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195">
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196">
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197">
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198">
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199">
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200">
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201">
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202">
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203">
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204">
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205">
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206">
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207">
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208">
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209">
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210">
       <c r="D210" s="4"/>
     </row>
-    <row r="211" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211">
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212">
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213">
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214">
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215">
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216">
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217">
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218">
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219">
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220">
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221">
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222">
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223">
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224">
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225">
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226">
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227">
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228">
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229">
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230">
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231">
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232">
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233">
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234">
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235">
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236">
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237">
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238">
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239">
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240">
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241">
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242">
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243">
       <c r="D243" s="4"/>
     </row>
-    <row r="244" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244">
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245">
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246">
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247">
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248">
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249">
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250">
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251">
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252">
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253">
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254">
       <c r="D254" s="4"/>
     </row>
-    <row r="255" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255">
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256">
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257">
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258">
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259">
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260">
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261">
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262">
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263">
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264">
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265">
       <c r="D265" s="4"/>
     </row>
-    <row r="266" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266">
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267">
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268">
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269">
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270">
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271">
       <c r="D271" s="4"/>
     </row>
-    <row r="272" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272">
       <c r="D272" s="4"/>
     </row>
-    <row r="273" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273">
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274">
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275">
       <c r="D275" s="4"/>
     </row>
-    <row r="276" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276">
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277">
       <c r="D277" s="4"/>
     </row>
-    <row r="278" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278">
       <c r="D278" s="4"/>
     </row>
-    <row r="279" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279">
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280">
       <c r="D280" s="4"/>
     </row>
-    <row r="281" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281">
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282">
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283">
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284">
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285">
       <c r="D285" s="4"/>
     </row>
-    <row r="286" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286">
       <c r="D286" s="4"/>
     </row>
-    <row r="287" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287">
       <c r="D287" s="4"/>
     </row>
-    <row r="288" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288">
       <c r="D288" s="4"/>
     </row>
-    <row r="289" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289">
       <c r="D289" s="4"/>
     </row>
-    <row r="290" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290">
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291">
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292">
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293">
       <c r="D293" s="4"/>
     </row>
-    <row r="294" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294">
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295">
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296">
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297">
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298">
       <c r="D298" s="4"/>
     </row>
-    <row r="299" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299">
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300">
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301">
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302">
       <c r="D302" s="4"/>
     </row>
-    <row r="303" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303">
       <c r="D303" s="4"/>
     </row>
-    <row r="304" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304">
       <c r="D304" s="4"/>
     </row>
-    <row r="305" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305">
       <c r="D305" s="4"/>
     </row>
-    <row r="306" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306">
       <c r="D306" s="4"/>
     </row>
-    <row r="307" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307">
       <c r="D307" s="4"/>
     </row>
-    <row r="308" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308">
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309">
       <c r="D309" s="4"/>
     </row>
-    <row r="310" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310">
       <c r="D310" s="4"/>
     </row>
-    <row r="311" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311">
       <c r="D311" s="4"/>
     </row>
-    <row r="312" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312">
       <c r="D312" s="4"/>
     </row>
-    <row r="313" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313">
       <c r="D313" s="4"/>
     </row>
-    <row r="314" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314">
       <c r="D314" s="4"/>
     </row>
-    <row r="315" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315">
       <c r="D315" s="4"/>
     </row>
-    <row r="316" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316">
       <c r="D316" s="4"/>
     </row>
-    <row r="317" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317">
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318">
       <c r="D318" s="4"/>
     </row>
-    <row r="319" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319">
       <c r="D319" s="4"/>
     </row>
-    <row r="320" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320">
       <c r="D320" s="4"/>
     </row>
-    <row r="321" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321">
       <c r="D321" s="4"/>
     </row>
-    <row r="322" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322">
       <c r="D322" s="4"/>
     </row>
-    <row r="323" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323">
       <c r="D323" s="4"/>
     </row>
-    <row r="324" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324">
       <c r="D324" s="4"/>
     </row>
-    <row r="325" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325">
       <c r="D325" s="4"/>
     </row>
-    <row r="326" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326">
       <c r="D326" s="4"/>
     </row>
-    <row r="327" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327">
       <c r="D327" s="4"/>
     </row>
-    <row r="328" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328">
       <c r="D328" s="4"/>
     </row>
-    <row r="329" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329">
       <c r="D329" s="4"/>
     </row>
-    <row r="330" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330">
       <c r="D330" s="4"/>
     </row>
-    <row r="331" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331">
       <c r="D331" s="4"/>
     </row>
-    <row r="332" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332">
       <c r="D332" s="4"/>
     </row>
-    <row r="333" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333">
       <c r="D333" s="4"/>
     </row>
-    <row r="334" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334">
       <c r="D334" s="4"/>
     </row>
-    <row r="335" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335">
       <c r="D335" s="4"/>
     </row>
-    <row r="336" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336">
       <c r="D336" s="4"/>
     </row>
-    <row r="337" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337">
       <c r="D337" s="4"/>
     </row>
-    <row r="338" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338">
       <c r="D338" s="4"/>
     </row>
-    <row r="339" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339">
       <c r="D339" s="4"/>
     </row>
-    <row r="340" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340">
       <c r="D340" s="4"/>
     </row>
-    <row r="341" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341">
       <c r="D341" s="4"/>
     </row>
-    <row r="342" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342">
       <c r="D342" s="4"/>
     </row>
-    <row r="343" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343">
       <c r="D343" s="4"/>
     </row>
-    <row r="344" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344">
       <c r="D344" s="4"/>
     </row>
-    <row r="345" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345">
       <c r="D345" s="4"/>
     </row>
-    <row r="346" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346">
       <c r="D346" s="4"/>
     </row>
-    <row r="347" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347">
       <c r="D347" s="4"/>
     </row>
-    <row r="348" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348">
       <c r="D348" s="4"/>
     </row>
-    <row r="349" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349">
       <c r="D349" s="4"/>
     </row>
-    <row r="350" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350">
       <c r="D350" s="4"/>
     </row>
-    <row r="351" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351">
       <c r="D351" s="4"/>
     </row>
-    <row r="352" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352">
       <c r="D352" s="4"/>
     </row>
-    <row r="353" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353">
       <c r="D353" s="4"/>
     </row>
-    <row r="354" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354">
       <c r="D354" s="4"/>
     </row>
-    <row r="355" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355">
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356">
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357">
       <c r="D357" s="4"/>
     </row>
-    <row r="358" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358">
       <c r="D358" s="4"/>
     </row>
-    <row r="359" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359">
       <c r="D359" s="4"/>
     </row>
-    <row r="360" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360">
       <c r="D360" s="4"/>
     </row>
-    <row r="361" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361">
       <c r="D361" s="4"/>
     </row>
-    <row r="362" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362">
       <c r="D362" s="4"/>
     </row>
-    <row r="363" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363">
       <c r="D363" s="4"/>
     </row>
-    <row r="364" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364">
       <c r="D364" s="4"/>
     </row>
-    <row r="365" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365">
       <c r="D365" s="4"/>
     </row>
-    <row r="366" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366">
       <c r="D366" s="4"/>
     </row>
-    <row r="367" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367">
       <c r="D367" s="4"/>
     </row>
-    <row r="368" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368">
       <c r="D368" s="4"/>
     </row>
-    <row r="369" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369">
       <c r="D369" s="4"/>
     </row>
-    <row r="370" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370">
       <c r="D370" s="4"/>
     </row>
-    <row r="371" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371">
       <c r="D371" s="4"/>
     </row>
-    <row r="372" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372">
       <c r="D372" s="4"/>
     </row>
-    <row r="373" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373">
       <c r="D373" s="4"/>
     </row>
-    <row r="374" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374">
       <c r="D374" s="4"/>
     </row>
-    <row r="375" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375">
       <c r="D375" s="4"/>
     </row>
-    <row r="376" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376">
       <c r="D376" s="4"/>
     </row>
-    <row r="377" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377">
       <c r="D377" s="4"/>
     </row>
-    <row r="378" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378">
       <c r="D378" s="4"/>
     </row>
-    <row r="379" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379">
       <c r="D379" s="4"/>
     </row>
-    <row r="380" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380">
       <c r="D380" s="4"/>
     </row>
-    <row r="381" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381">
       <c r="D381" s="4"/>
     </row>
-    <row r="382" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382">
       <c r="D382" s="4"/>
     </row>
-    <row r="383" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383">
       <c r="D383" s="4"/>
     </row>
-    <row r="384" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384">
       <c r="D384" s="4"/>
     </row>
-    <row r="385" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385">
       <c r="D385" s="4"/>
     </row>
-    <row r="386" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386">
       <c r="D386" s="4"/>
     </row>
-    <row r="387" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387">
       <c r="D387" s="4"/>
     </row>
-    <row r="388" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388">
       <c r="D388" s="4"/>
     </row>
-    <row r="389" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389">
       <c r="D389" s="4"/>
     </row>
-    <row r="390" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390">
       <c r="D390" s="4"/>
     </row>
-    <row r="391" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391">
       <c r="D391" s="4"/>
     </row>
-    <row r="392" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392">
       <c r="D392" s="4"/>
     </row>
-    <row r="393" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393">
       <c r="D393" s="4"/>
     </row>
-    <row r="394" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394">
       <c r="D394" s="4"/>
     </row>
-    <row r="395" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395">
       <c r="D395" s="4"/>
     </row>
-    <row r="396" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396">
       <c r="D396" s="4"/>
     </row>
-    <row r="397" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397">
       <c r="D397" s="4"/>
     </row>
-    <row r="398" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398">
       <c r="D398" s="4"/>
     </row>
-    <row r="399" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399">
       <c r="D399" s="4"/>
     </row>
-    <row r="400" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400">
       <c r="D400" s="4"/>
     </row>
-    <row r="401" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401">
       <c r="D401" s="4"/>
     </row>
-    <row r="402" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402">
       <c r="D402" s="4"/>
     </row>
-    <row r="403" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403">
       <c r="D403" s="4"/>
     </row>
-    <row r="404" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404">
       <c r="D404" s="4"/>
     </row>
-    <row r="405" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405">
       <c r="D405" s="4"/>
     </row>
-    <row r="406" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406">
       <c r="D406" s="4"/>
     </row>
-    <row r="407" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407">
       <c r="D407" s="4"/>
     </row>
-    <row r="408" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408">
       <c r="D408" s="4"/>
     </row>
-    <row r="409" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409">
       <c r="D409" s="4"/>
     </row>
-    <row r="410" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410">
       <c r="D410" s="4"/>
     </row>
-    <row r="411" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411">
       <c r="D411" s="4"/>
     </row>
-    <row r="412" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412">
       <c r="D412" s="4"/>
     </row>
-    <row r="413" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413">
       <c r="D413" s="4"/>
     </row>
-    <row r="414" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414">
       <c r="D414" s="4"/>
     </row>
-    <row r="415" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415">
       <c r="D415" s="4"/>
     </row>
-    <row r="416" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416">
       <c r="D416" s="4"/>
     </row>
-    <row r="417" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417">
       <c r="D417" s="4"/>
     </row>
-    <row r="418" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418">
       <c r="D418" s="4"/>
     </row>
-    <row r="419" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419">
       <c r="D419" s="4"/>
     </row>
-    <row r="420" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420">
       <c r="D420" s="4"/>
     </row>
-    <row r="421" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421">
       <c r="D421" s="4"/>
     </row>
-    <row r="422" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422">
       <c r="D422" s="4"/>
     </row>
-    <row r="423" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423">
       <c r="D423" s="4"/>
     </row>
-    <row r="424" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424">
       <c r="D424" s="4"/>
     </row>
-    <row r="425" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425">
       <c r="D425" s="4"/>
     </row>
-    <row r="426" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426">
       <c r="D426" s="4"/>
     </row>
-    <row r="427" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427">
       <c r="D427" s="4"/>
     </row>
-    <row r="428" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428">
       <c r="D428" s="4"/>
     </row>
-    <row r="429" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429">
       <c r="D429" s="4"/>
     </row>
-    <row r="430" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430">
       <c r="D430" s="4"/>
     </row>
-    <row r="431" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431">
       <c r="D431" s="4"/>
     </row>
-    <row r="432" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432">
       <c r="D432" s="4"/>
     </row>
-    <row r="433" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433">
       <c r="D433" s="4"/>
     </row>
-    <row r="434" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434">
       <c r="D434" s="4"/>
     </row>
-    <row r="435" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435">
       <c r="D435" s="4"/>
     </row>
-    <row r="436" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436">
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437">
       <c r="D437" s="4"/>
     </row>
-    <row r="438" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438">
       <c r="D438" s="4"/>
     </row>
-    <row r="439" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439">
       <c r="D439" s="4"/>
     </row>
-    <row r="440" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440">
       <c r="D440" s="4"/>
     </row>
-    <row r="441" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441">
       <c r="D441" s="4"/>
     </row>
-    <row r="442" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442">
       <c r="D442" s="4"/>
     </row>
-    <row r="443" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443">
       <c r="D443" s="4"/>
     </row>
-    <row r="444" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444">
       <c r="D444" s="4"/>
     </row>
-    <row r="445" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445">
       <c r="D445" s="4"/>
     </row>
-    <row r="446" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446">
       <c r="D446" s="4"/>
     </row>
-    <row r="447" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447">
       <c r="D447" s="4"/>
     </row>
-    <row r="448" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448">
       <c r="D448" s="4"/>
     </row>
-    <row r="449" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449">
       <c r="D449" s="4"/>
     </row>
-    <row r="450" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450">
       <c r="D450" s="4"/>
     </row>
-    <row r="451" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451">
       <c r="D451" s="4"/>
     </row>
-    <row r="452" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452">
       <c r="D452" s="4"/>
     </row>
-    <row r="453" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453">
       <c r="D453" s="4"/>
     </row>
-    <row r="454" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454">
       <c r="D454" s="4"/>
     </row>
-    <row r="455" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455">
       <c r="D455" s="4"/>
     </row>
-    <row r="456" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456">
       <c r="D456" s="4"/>
     </row>
-    <row r="457" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457">
       <c r="D457" s="4"/>
     </row>
-    <row r="458" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458">
       <c r="D458" s="4"/>
     </row>
-    <row r="459" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459">
       <c r="D459" s="4"/>
     </row>
-    <row r="460" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460">
       <c r="D460" s="4"/>
     </row>
-    <row r="461" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461">
       <c r="D461" s="4"/>
     </row>
-    <row r="462" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462">
       <c r="D462" s="4"/>
     </row>
-    <row r="463" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463">
       <c r="D463" s="4"/>
     </row>
-    <row r="464" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464">
       <c r="D464" s="4"/>
     </row>
-    <row r="465" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465">
       <c r="D465" s="4"/>
     </row>
-    <row r="466" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466">
       <c r="D466" s="4"/>
     </row>
-    <row r="467" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467">
       <c r="D467" s="4"/>
     </row>
-    <row r="468" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468">
       <c r="D468" s="4"/>
     </row>
-    <row r="469" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469">
       <c r="D469" s="4"/>
     </row>
-    <row r="470" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470">
       <c r="D470" s="4"/>
     </row>
-    <row r="471" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471">
       <c r="D471" s="4"/>
     </row>
-    <row r="472" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472">
       <c r="D472" s="4"/>
     </row>
-    <row r="473" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473">
       <c r="D473" s="4"/>
     </row>
-    <row r="474" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474">
       <c r="D474" s="4"/>
     </row>
-    <row r="475" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475">
       <c r="D475" s="4"/>
     </row>
-    <row r="476" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476">
       <c r="D476" s="4"/>
     </row>
-    <row r="477" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477">
       <c r="D477" s="4"/>
     </row>
-    <row r="478" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478">
       <c r="D478" s="4"/>
     </row>
-    <row r="479" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479">
       <c r="D479" s="4"/>
     </row>
-    <row r="480" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480">
       <c r="D480" s="4"/>
     </row>
-    <row r="481" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481">
       <c r="D481" s="4"/>
     </row>
-    <row r="482" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482">
       <c r="D482" s="4"/>
     </row>
-    <row r="483" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483">
       <c r="D483" s="4"/>
     </row>
-    <row r="484" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484">
       <c r="D484" s="4"/>
     </row>
-    <row r="485" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485">
       <c r="D485" s="4"/>
     </row>
-    <row r="486" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486">
       <c r="D486" s="4"/>
     </row>
-    <row r="487" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487">
       <c r="D487" s="4"/>
     </row>
-    <row r="488" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488">
       <c r="D488" s="4"/>
     </row>
-    <row r="489" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489">
       <c r="D489" s="4"/>
     </row>
-    <row r="490" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490">
       <c r="D490" s="4"/>
     </row>
-    <row r="491" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491">
       <c r="D491" s="4"/>
     </row>
-    <row r="492" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492">
       <c r="D492" s="4"/>
     </row>
-    <row r="493" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493">
       <c r="D493" s="4"/>
     </row>
-    <row r="494" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494">
       <c r="D494" s="4"/>
     </row>
-    <row r="495" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495">
       <c r="D495" s="4"/>
     </row>
-    <row r="496" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496">
       <c r="D496" s="4"/>
     </row>
-    <row r="497" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497">
       <c r="D497" s="4"/>
     </row>
-    <row r="498" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498">
       <c r="D498" s="4"/>
     </row>
-    <row r="499" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499">
       <c r="D499" s="4"/>
     </row>
-    <row r="500" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500">
       <c r="D500" s="4"/>
     </row>
-    <row r="501" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501">
       <c r="D501" s="4"/>
     </row>
-    <row r="502" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502">
       <c r="D502" s="4"/>
     </row>
-    <row r="503" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503">
       <c r="D503" s="4"/>
     </row>
-    <row r="504" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504">
       <c r="D504" s="4"/>
     </row>
-    <row r="505" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505">
       <c r="D505" s="4"/>
     </row>
-    <row r="506" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506">
       <c r="D506" s="4"/>
     </row>
-    <row r="507" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507">
       <c r="D507" s="4"/>
     </row>
-    <row r="508" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508">
       <c r="D508" s="4"/>
     </row>
-    <row r="509" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509">
       <c r="D509" s="4"/>
     </row>
-    <row r="510" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510">
       <c r="D510" s="4"/>
     </row>
-    <row r="511" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511">
       <c r="D511" s="4"/>
     </row>
-    <row r="512" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512">
       <c r="D512" s="4"/>
     </row>
-    <row r="513" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513">
       <c r="D513" s="4"/>
     </row>
-    <row r="514" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514">
       <c r="D514" s="4"/>
     </row>
-    <row r="515" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515">
       <c r="D515" s="4"/>
     </row>
-    <row r="516" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516">
       <c r="D516" s="4"/>
     </row>
-    <row r="517" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517">
       <c r="D517" s="4"/>
     </row>
-    <row r="518" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518">
       <c r="D518" s="4"/>
     </row>
-    <row r="519" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519">
       <c r="D519" s="4"/>
     </row>
-    <row r="520" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520">
       <c r="D520" s="4"/>
     </row>
-    <row r="521" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521">
       <c r="D521" s="4"/>
     </row>
-    <row r="522" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522">
       <c r="D522" s="4"/>
     </row>
-    <row r="523" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523">
       <c r="D523" s="4"/>
     </row>
-    <row r="524" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524">
       <c r="D524" s="4"/>
     </row>
-    <row r="525" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525">
       <c r="D525" s="4"/>
     </row>
-    <row r="526" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526">
       <c r="D526" s="4"/>
     </row>
-    <row r="527" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527">
       <c r="D527" s="4"/>
     </row>
-    <row r="528" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528">
       <c r="D528" s="4"/>
     </row>
-    <row r="529" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529">
       <c r="D529" s="4"/>
     </row>
-    <row r="530" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530">
       <c r="D530" s="4"/>
     </row>
-    <row r="531" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531">
       <c r="D531" s="4"/>
     </row>
-    <row r="532" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532">
       <c r="D532" s="4"/>
     </row>
-    <row r="533" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533">
       <c r="D533" s="4"/>
     </row>
-    <row r="534" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534">
       <c r="D534" s="4"/>
     </row>
-    <row r="535" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535">
       <c r="D535" s="4"/>
     </row>
-    <row r="536" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536">
       <c r="D536" s="4"/>
     </row>
-    <row r="537" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537">
       <c r="D537" s="4"/>
     </row>
-    <row r="538" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538">
       <c r="D538" s="4"/>
     </row>
-    <row r="539" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539">
       <c r="D539" s="4"/>
     </row>
-    <row r="540" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540">
       <c r="D540" s="4"/>
     </row>
-    <row r="541" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541">
       <c r="D541" s="4"/>
     </row>
-    <row r="542" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542">
       <c r="D542" s="4"/>
     </row>
-    <row r="543" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543">
       <c r="D543" s="4"/>
     </row>
-    <row r="544" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544">
       <c r="D544" s="4"/>
     </row>
-    <row r="545" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545">
       <c r="D545" s="4"/>
     </row>
-    <row r="546" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546">
       <c r="D546" s="4"/>
     </row>
-    <row r="547" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547">
       <c r="D547" s="4"/>
     </row>
-    <row r="548" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548">
       <c r="D548" s="4"/>
     </row>
-    <row r="549" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549">
       <c r="D549" s="4"/>
     </row>
-    <row r="550" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550">
       <c r="D550" s="4"/>
     </row>
-    <row r="551" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551">
       <c r="D551" s="4"/>
     </row>
-    <row r="552" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552">
       <c r="D552" s="4"/>
     </row>
-    <row r="553" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553">
       <c r="D553" s="4"/>
     </row>
-    <row r="554" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554">
       <c r="D554" s="4"/>
     </row>
-    <row r="555" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555">
       <c r="D555" s="4"/>
     </row>
-    <row r="556" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556">
       <c r="D556" s="4"/>
     </row>
-    <row r="557" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557">
       <c r="D557" s="4"/>
     </row>
-    <row r="558" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558">
       <c r="D558" s="4"/>
     </row>
-    <row r="559" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559">
       <c r="D559" s="4"/>
     </row>
-    <row r="560" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560">
       <c r="D560" s="4"/>
     </row>
-    <row r="561" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561">
       <c r="D561" s="4"/>
     </row>
-    <row r="562" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562">
       <c r="D562" s="4"/>
     </row>
-    <row r="563" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563">
       <c r="D563" s="4"/>
     </row>
-    <row r="564" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564">
       <c r="D564" s="4"/>
     </row>
-    <row r="565" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565">
       <c r="D565" s="4"/>
     </row>
-    <row r="566" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566">
       <c r="D566" s="4"/>
     </row>
-    <row r="567" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567">
       <c r="D567" s="4"/>
     </row>
-    <row r="568" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568">
       <c r="D568" s="4"/>
     </row>
-    <row r="569" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569">
       <c r="D569" s="4"/>
     </row>
-    <row r="570" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570">
       <c r="D570" s="4"/>
     </row>
-    <row r="571" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571">
       <c r="D571" s="4"/>
     </row>
-    <row r="572" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572">
       <c r="D572" s="4"/>
     </row>
-    <row r="573" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573">
       <c r="D573" s="4"/>
     </row>
-    <row r="574" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574">
       <c r="D574" s="4"/>
     </row>
-    <row r="575" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575">
       <c r="D575" s="4"/>
     </row>
-    <row r="576" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576">
       <c r="D576" s="4"/>
     </row>
-    <row r="577" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577">
       <c r="D577" s="4"/>
     </row>
-    <row r="578" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578">
       <c r="D578" s="4"/>
     </row>
-    <row r="579" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579">
       <c r="D579" s="4"/>
     </row>
-    <row r="580" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580">
       <c r="D580" s="4"/>
     </row>
-    <row r="581" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581">
       <c r="D581" s="4"/>
     </row>
-    <row r="582" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582">
       <c r="D582" s="4"/>
     </row>
-    <row r="583" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583">
       <c r="D583" s="4"/>
     </row>
-    <row r="584" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584">
       <c r="D584" s="4"/>
     </row>
-    <row r="585" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585">
       <c r="D585" s="4"/>
     </row>
-    <row r="586" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586">
       <c r="D586" s="4"/>
     </row>
-    <row r="587" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587">
       <c r="D587" s="4"/>
     </row>
-    <row r="588" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588">
       <c r="D588" s="4"/>
     </row>
-    <row r="589" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589">
       <c r="D589" s="4"/>
     </row>
-    <row r="590" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590">
       <c r="D590" s="4"/>
     </row>
-    <row r="591" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591">
       <c r="D591" s="4"/>
     </row>
-    <row r="592" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592">
       <c r="D592" s="4"/>
     </row>
-    <row r="593" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593">
       <c r="D593" s="4"/>
     </row>
-    <row r="594" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594">
       <c r="D594" s="4"/>
     </row>
-    <row r="595" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595">
       <c r="D595" s="4"/>
     </row>
-    <row r="596" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596">
       <c r="D596" s="4"/>
     </row>
-    <row r="597" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597">
       <c r="D597" s="4"/>
     </row>
-    <row r="598" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598">
       <c r="D598" s="4"/>
     </row>
-    <row r="599" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599">
       <c r="D599" s="4"/>
     </row>
-    <row r="600" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600">
       <c r="D600" s="4"/>
     </row>
-    <row r="601" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601">
       <c r="D601" s="4"/>
     </row>
-    <row r="602" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602">
       <c r="D602" s="4"/>
     </row>
-    <row r="603" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603">
       <c r="D603" s="4"/>
     </row>
-    <row r="604" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604">
       <c r="D604" s="4"/>
     </row>
-    <row r="605" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605">
       <c r="D605" s="4"/>
     </row>
-    <row r="606" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606">
       <c r="D606" s="4"/>
     </row>
-    <row r="607" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607">
       <c r="D607" s="4"/>
     </row>
-    <row r="608" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608">
       <c r="D608" s="4"/>
     </row>
-    <row r="609" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609">
       <c r="D609" s="4"/>
     </row>
-    <row r="610" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610">
       <c r="D610" s="4"/>
     </row>
-    <row r="611" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611">
       <c r="D611" s="4"/>
     </row>
-    <row r="612" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612">
       <c r="D612" s="4"/>
     </row>
-    <row r="613" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613">
       <c r="D613" s="4"/>
     </row>
-    <row r="614" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614">
       <c r="D614" s="4"/>
     </row>
-    <row r="615" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615">
       <c r="D615" s="4"/>
     </row>
-    <row r="616" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616">
       <c r="D616" s="4"/>
     </row>
-    <row r="617" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617">
       <c r="D617" s="4"/>
     </row>
-    <row r="618" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618">
       <c r="D618" s="4"/>
     </row>
-    <row r="619" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619">
       <c r="D619" s="4"/>
     </row>
-    <row r="620" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620">
       <c r="D620" s="4"/>
     </row>
-    <row r="621" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621">
       <c r="D621" s="4"/>
     </row>
-    <row r="622" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622">
       <c r="D622" s="4"/>
     </row>
-    <row r="623" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623">
       <c r="D623" s="4"/>
     </row>
-    <row r="624" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624">
       <c r="D624" s="4"/>
     </row>
-    <row r="625" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625">
       <c r="D625" s="4"/>
     </row>
-    <row r="626" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626">
       <c r="D626" s="4"/>
     </row>
-    <row r="627" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627">
       <c r="D627" s="4"/>
     </row>
-    <row r="628" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628">
       <c r="D628" s="4"/>
     </row>
-    <row r="629" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629">
       <c r="D629" s="4"/>
     </row>
-    <row r="630" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630">
       <c r="D630" s="4"/>
     </row>
-    <row r="631" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631">
       <c r="D631" s="4"/>
     </row>
-    <row r="632" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632">
       <c r="D632" s="4"/>
     </row>
-    <row r="633" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633">
       <c r="D633" s="4"/>
     </row>
-    <row r="634" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634">
       <c r="D634" s="4"/>
     </row>
-    <row r="635" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635">
       <c r="D635" s="4"/>
     </row>
-    <row r="636" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636">
       <c r="D636" s="4"/>
     </row>
-    <row r="637" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637">
       <c r="D637" s="4"/>
     </row>
-    <row r="638" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638">
       <c r="D638" s="4"/>
     </row>
-    <row r="639" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639">
       <c r="D639" s="4"/>
     </row>
-    <row r="640" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640">
       <c r="D640" s="4"/>
     </row>
-    <row r="641" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641">
       <c r="D641" s="4"/>
     </row>
-    <row r="642" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642">
       <c r="D642" s="4"/>
     </row>
-    <row r="643" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643">
       <c r="D643" s="4"/>
     </row>
-    <row r="644" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644">
       <c r="D644" s="4"/>
     </row>
-    <row r="645" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645">
       <c r="D645" s="4"/>
     </row>
-    <row r="646" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646">
       <c r="D646" s="4"/>
     </row>
-    <row r="647" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647">
       <c r="D647" s="4"/>
     </row>
-    <row r="648" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648">
       <c r="D648" s="4"/>
     </row>
-    <row r="649" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649">
       <c r="D649" s="4"/>
     </row>
-    <row r="650" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650">
       <c r="D650" s="4"/>
     </row>
-    <row r="651" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651">
       <c r="D651" s="4"/>
     </row>
-    <row r="652" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652">
       <c r="D652" s="4"/>
     </row>
-    <row r="653" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653">
       <c r="D653" s="4"/>
     </row>
-    <row r="654" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654">
       <c r="D654" s="4"/>
     </row>
-    <row r="655" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655">
       <c r="D655" s="4"/>
     </row>
-    <row r="656" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656">
       <c r="D656" s="4"/>
     </row>
-    <row r="657" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657">
       <c r="D657" s="4"/>
     </row>
-    <row r="658" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658">
       <c r="D658" s="4"/>
     </row>
-    <row r="659" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659">
       <c r="D659" s="4"/>
     </row>
-    <row r="660" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660">
       <c r="D660" s="4"/>
     </row>
-    <row r="661" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661">
       <c r="D661" s="4"/>
     </row>
-    <row r="662" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662">
       <c r="D662" s="4"/>
     </row>
-    <row r="663" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663">
       <c r="D663" s="4"/>
     </row>
-    <row r="664" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664">
       <c r="D664" s="4"/>
     </row>
-    <row r="665" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665">
       <c r="D665" s="4"/>
     </row>
-    <row r="666" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666">
       <c r="D666" s="4"/>
     </row>
-    <row r="667" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667">
       <c r="D667" s="4"/>
     </row>
-    <row r="668" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668">
       <c r="D668" s="4"/>
     </row>
-    <row r="669" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669">
       <c r="D669" s="4"/>
     </row>
-    <row r="670" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670">
       <c r="D670" s="4"/>
     </row>
-    <row r="671" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671">
       <c r="D671" s="4"/>
     </row>
-    <row r="672" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672">
       <c r="D672" s="4"/>
     </row>
-    <row r="673" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673">
       <c r="D673" s="4"/>
     </row>
-    <row r="674" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674">
       <c r="D674" s="4"/>
     </row>
-    <row r="675" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675">
       <c r="D675" s="4"/>
     </row>
-    <row r="676" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676">
       <c r="D676" s="4"/>
     </row>
-    <row r="677" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677">
       <c r="D677" s="4"/>
     </row>
-    <row r="678" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678">
       <c r="D678" s="4"/>
     </row>
-    <row r="679" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679">
       <c r="D679" s="4"/>
     </row>
-    <row r="680" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680">
       <c r="D680" s="4"/>
     </row>
-    <row r="681" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681">
       <c r="D681" s="4"/>
     </row>
-    <row r="682" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682">
       <c r="D682" s="4"/>
     </row>
-    <row r="683" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683">
       <c r="D683" s="4"/>
     </row>
-    <row r="684" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684">
       <c r="D684" s="4"/>
     </row>
-    <row r="685" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685">
       <c r="D685" s="4"/>
     </row>
-    <row r="686" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686">
       <c r="D686" s="4"/>
     </row>
-    <row r="687" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687">
       <c r="D687" s="4"/>
     </row>
-    <row r="688" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688">
       <c r="D688" s="4"/>
     </row>
-    <row r="689" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689">
       <c r="D689" s="4"/>
     </row>
-    <row r="690" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690">
       <c r="D690" s="4"/>
     </row>
-    <row r="691" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691">
       <c r="D691" s="4"/>
     </row>
-    <row r="692" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692">
       <c r="D692" s="4"/>
     </row>
-    <row r="693" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693">
       <c r="D693" s="4"/>
     </row>
-    <row r="694" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694">
       <c r="D694" s="4"/>
     </row>
-    <row r="695" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695">
       <c r="D695" s="4"/>
     </row>
-    <row r="696" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696">
       <c r="D696" s="4"/>
     </row>
-    <row r="697" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697">
       <c r="D697" s="4"/>
     </row>
-    <row r="698" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698">
       <c r="D698" s="4"/>
     </row>
-    <row r="699" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699">
       <c r="D699" s="4"/>
     </row>
-    <row r="700" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700">
       <c r="D700" s="4"/>
     </row>
-    <row r="701" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701">
       <c r="D701" s="4"/>
     </row>
-    <row r="702" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702">
       <c r="D702" s="4"/>
     </row>
-    <row r="703" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703">
       <c r="D703" s="4"/>
     </row>
-    <row r="704" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704">
       <c r="D704" s="4"/>
     </row>
-    <row r="705" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705">
       <c r="D705" s="4"/>
     </row>
-    <row r="706" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706">
       <c r="D706" s="4"/>
     </row>
-    <row r="707" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707">
       <c r="D707" s="4"/>
     </row>
-    <row r="708" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708">
       <c r="D708" s="4"/>
     </row>
-    <row r="709" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709">
       <c r="D709" s="4"/>
     </row>
-    <row r="710" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710">
       <c r="D710" s="4"/>
     </row>
-    <row r="711" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711">
       <c r="D711" s="4"/>
     </row>
-    <row r="712" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712">
       <c r="D712" s="4"/>
     </row>
-    <row r="713" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713">
       <c r="D713" s="4"/>
     </row>
-    <row r="714" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714">
       <c r="D714" s="4"/>
     </row>
-    <row r="715" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715">
       <c r="D715" s="4"/>
     </row>
-    <row r="716" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716">
       <c r="D716" s="4"/>
     </row>
-    <row r="717" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717">
       <c r="D717" s="4"/>
     </row>
-    <row r="718" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718">
       <c r="D718" s="4"/>
     </row>
-    <row r="719" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719">
       <c r="D719" s="4"/>
     </row>
-    <row r="720" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720">
       <c r="D720" s="4"/>
     </row>
-    <row r="721" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721">
       <c r="D721" s="4"/>
     </row>
-    <row r="722" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722">
       <c r="D722" s="4"/>
     </row>
-    <row r="723" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723">
       <c r="D723" s="4"/>
     </row>
-    <row r="724" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724">
       <c r="D724" s="4"/>
     </row>
-    <row r="725" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725">
       <c r="D725" s="4"/>
     </row>
-    <row r="726" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726">
       <c r="D726" s="4"/>
     </row>
-    <row r="727" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727">
       <c r="D727" s="4"/>
     </row>
-    <row r="728" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728">
       <c r="D728" s="4"/>
     </row>
-    <row r="729" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729">
       <c r="D729" s="4"/>
     </row>
-    <row r="730" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730">
       <c r="D730" s="4"/>
     </row>
-    <row r="731" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731">
       <c r="D731" s="4"/>
     </row>
-    <row r="732" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732">
       <c r="D732" s="4"/>
     </row>
-    <row r="733" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733">
       <c r="D733" s="4"/>
     </row>
-    <row r="734" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734">
       <c r="D734" s="4"/>
     </row>
-    <row r="735" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735">
       <c r="D735" s="4"/>
     </row>
-    <row r="736" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736">
       <c r="D736" s="4"/>
     </row>
-    <row r="737" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737">
       <c r="D737" s="4"/>
     </row>
-    <row r="738" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738">
       <c r="D738" s="4"/>
     </row>
-    <row r="739" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739">
       <c r="D739" s="4"/>
     </row>
-    <row r="740" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740">
       <c r="D740" s="4"/>
     </row>
-    <row r="741" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741">
       <c r="D741" s="4"/>
     </row>
-    <row r="742" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742">
       <c r="D742" s="4"/>
     </row>
-    <row r="743" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743">
       <c r="D743" s="4"/>
     </row>
-    <row r="744" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744">
       <c r="D744" s="4"/>
     </row>
-    <row r="745" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745">
       <c r="D745" s="4"/>
     </row>
-    <row r="746" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746">
       <c r="D746" s="4"/>
     </row>
-    <row r="747" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747">
       <c r="D747" s="4"/>
     </row>
-    <row r="748" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748">
       <c r="D748" s="4"/>
     </row>
-    <row r="749" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749">
       <c r="D749" s="4"/>
     </row>
-    <row r="750" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750">
       <c r="D750" s="4"/>
     </row>
-    <row r="751" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751">
       <c r="D751" s="4"/>
     </row>
-    <row r="752" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752">
       <c r="D752" s="4"/>
     </row>
-    <row r="753" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753">
       <c r="D753" s="4"/>
     </row>
-    <row r="754" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754">
       <c r="D754" s="4"/>
     </row>
-    <row r="755" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755">
       <c r="D755" s="4"/>
     </row>
-    <row r="756" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756">
       <c r="D756" s="4"/>
     </row>
-    <row r="757" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757">
       <c r="D757" s="4"/>
     </row>
-    <row r="758" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758">
       <c r="D758" s="4"/>
     </row>
-    <row r="759" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759">
       <c r="D759" s="4"/>
     </row>
-    <row r="760" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760">
       <c r="D760" s="4"/>
     </row>
-    <row r="761" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761">
       <c r="D761" s="4"/>
     </row>
-    <row r="762" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762">
       <c r="D762" s="4"/>
     </row>
-    <row r="763" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763">
       <c r="D763" s="4"/>
     </row>
-    <row r="764" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764">
       <c r="D764" s="4"/>
     </row>
-    <row r="765" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765">
       <c r="D765" s="4"/>
     </row>
-    <row r="766" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766">
       <c r="D766" s="4"/>
     </row>
-    <row r="767" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767">
       <c r="D767" s="4"/>
     </row>
-    <row r="768" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768">
       <c r="D768" s="4"/>
     </row>
-    <row r="769" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769">
       <c r="D769" s="4"/>
     </row>
-    <row r="770" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770">
       <c r="D770" s="4"/>
     </row>
-    <row r="771" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771">
       <c r="D771" s="4"/>
     </row>
-    <row r="772" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772">
       <c r="D772" s="4"/>
     </row>
-    <row r="773" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773">
       <c r="D773" s="4"/>
     </row>
-    <row r="774" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774">
       <c r="D774" s="4"/>
     </row>
-    <row r="775" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775">
       <c r="D775" s="4"/>
     </row>
-    <row r="776" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776">
       <c r="D776" s="4"/>
     </row>
-    <row r="777" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777">
       <c r="D777" s="4"/>
     </row>
-    <row r="778" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778">
       <c r="D778" s="4"/>
     </row>
-    <row r="779" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779">
       <c r="D779" s="4"/>
     </row>
-    <row r="780" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780">
       <c r="D780" s="4"/>
     </row>
-    <row r="781" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781">
       <c r="D781" s="4"/>
     </row>
-    <row r="782" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782">
       <c r="D782" s="4"/>
     </row>
-    <row r="783" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783">
       <c r="D783" s="4"/>
     </row>
-    <row r="784" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784">
       <c r="D784" s="4"/>
     </row>
-    <row r="785" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785">
       <c r="D785" s="4"/>
     </row>
-    <row r="786" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786">
       <c r="D786" s="4"/>
     </row>
-    <row r="787" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787">
       <c r="D787" s="4"/>
     </row>
-    <row r="788" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788">
       <c r="D788" s="4"/>
     </row>
-    <row r="789" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789">
       <c r="D789" s="4"/>
     </row>
-    <row r="790" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790">
       <c r="D790" s="4"/>
     </row>
-    <row r="791" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791">
       <c r="D791" s="4"/>
     </row>
-    <row r="792" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792">
       <c r="D792" s="4"/>
     </row>
-    <row r="793" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793">
       <c r="D793" s="4"/>
     </row>
-    <row r="794" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794">
       <c r="D794" s="4"/>
     </row>
-    <row r="795" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795">
       <c r="D795" s="4"/>
     </row>
-    <row r="796" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796">
       <c r="D796" s="4"/>
     </row>
-    <row r="797" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797">
       <c r="D797" s="4"/>
     </row>
-    <row r="798" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798">
       <c r="D798" s="4"/>
     </row>
-    <row r="799" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799">
       <c r="D799" s="4"/>
     </row>
-    <row r="800" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800">
       <c r="D800" s="4"/>
     </row>
-    <row r="801" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801">
       <c r="D801" s="4"/>
     </row>
-    <row r="802" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802">
       <c r="D802" s="4"/>
     </row>
-    <row r="803" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803">
       <c r="D803" s="4"/>
     </row>
-    <row r="804" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804">
       <c r="D804" s="4"/>
     </row>
-    <row r="805" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805">
       <c r="D805" s="4"/>
     </row>
-    <row r="806" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806">
       <c r="D806" s="4"/>
     </row>
-    <row r="807" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807">
       <c r="D807" s="4"/>
     </row>
-    <row r="808" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808">
       <c r="D808" s="4"/>
     </row>
-    <row r="809" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809">
       <c r="D809" s="4"/>
     </row>
-    <row r="810" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810">
       <c r="D810" s="4"/>
     </row>
-    <row r="811" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811">
       <c r="D811" s="4"/>
     </row>
-    <row r="812" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812">
       <c r="D812" s="4"/>
     </row>
-    <row r="813" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813">
       <c r="D813" s="4"/>
     </row>
-    <row r="814" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814">
       <c r="D814" s="4"/>
     </row>
-    <row r="815" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815">
       <c r="D815" s="4"/>
     </row>
-    <row r="816" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816">
       <c r="D816" s="4"/>
     </row>
-    <row r="817" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817">
       <c r="D817" s="4"/>
     </row>
-    <row r="818" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818">
       <c r="D818" s="4"/>
     </row>
-    <row r="819" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819">
       <c r="D819" s="4"/>
     </row>
-    <row r="820" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820">
       <c r="D820" s="4"/>
     </row>
-    <row r="821" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821">
       <c r="D821" s="4"/>
     </row>
-    <row r="822" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822">
       <c r="D822" s="4"/>
     </row>
-    <row r="823" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823">
       <c r="D823" s="4"/>
     </row>
-    <row r="824" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824">
       <c r="D824" s="4"/>
     </row>
-    <row r="825" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825">
       <c r="D825" s="4"/>
     </row>
-    <row r="826" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826">
       <c r="D826" s="4"/>
     </row>
-    <row r="827" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827">
       <c r="D827" s="4"/>
     </row>
-    <row r="828" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828">
       <c r="D828" s="4"/>
     </row>
-    <row r="829" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829">
       <c r="D829" s="4"/>
     </row>
-    <row r="830" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830">
       <c r="D830" s="4"/>
     </row>
-    <row r="831" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831">
       <c r="D831" s="4"/>
     </row>
-    <row r="832" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832">
       <c r="D832" s="4"/>
     </row>
-    <row r="833" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833">
       <c r="D833" s="4"/>
     </row>
-    <row r="834" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834">
       <c r="D834" s="4"/>
     </row>
-    <row r="835" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835">
       <c r="D835" s="4"/>
     </row>
-    <row r="836" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836">
       <c r="D836" s="4"/>
     </row>
-    <row r="837" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837">
       <c r="D837" s="4"/>
     </row>
-    <row r="838" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838">
       <c r="D838" s="4"/>
     </row>
-    <row r="839" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839">
       <c r="D839" s="4"/>
     </row>
-    <row r="840" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840">
       <c r="D840" s="4"/>
     </row>
-    <row r="841" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841">
       <c r="D841" s="4"/>
     </row>
-    <row r="842" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842">
       <c r="D842" s="4"/>
     </row>
-    <row r="843" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843">
       <c r="D843" s="4"/>
     </row>
-    <row r="844" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844">
       <c r="D844" s="4"/>
     </row>
-    <row r="845" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845">
       <c r="D845" s="4"/>
     </row>
-    <row r="846" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846">
       <c r="D846" s="4"/>
     </row>
-    <row r="847" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847">
       <c r="D847" s="4"/>
     </row>
-    <row r="848" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848">
       <c r="D848" s="4"/>
     </row>
-    <row r="849" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849">
       <c r="D849" s="4"/>
     </row>
-    <row r="850" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850">
       <c r="D850" s="4"/>
     </row>
-    <row r="851" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851">
       <c r="D851" s="4"/>
     </row>
-    <row r="852" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852">
       <c r="D852" s="4"/>
     </row>
-    <row r="853" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853">
       <c r="D853" s="4"/>
     </row>
-    <row r="854" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854">
       <c r="D854" s="4"/>
     </row>
-    <row r="855" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855">
       <c r="D855" s="4"/>
     </row>
-    <row r="856" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856">
       <c r="D856" s="4"/>
     </row>
-    <row r="857" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857">
       <c r="D857" s="4"/>
     </row>
-    <row r="858" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858">
       <c r="D858" s="4"/>
     </row>
-    <row r="859" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859">
       <c r="D859" s="4"/>
     </row>
-    <row r="860" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860">
       <c r="D860" s="4"/>
     </row>
-    <row r="861" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861">
       <c r="D861" s="4"/>
     </row>
-    <row r="862" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862">
       <c r="D862" s="4"/>
     </row>
-    <row r="863" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863">
       <c r="D863" s="4"/>
     </row>
-    <row r="864" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864">
       <c r="D864" s="4"/>
     </row>
-    <row r="865" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865">
       <c r="D865" s="4"/>
     </row>
-    <row r="866" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866">
       <c r="D866" s="4"/>
     </row>
-    <row r="867" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867">
       <c r="D867" s="4"/>
     </row>
-    <row r="868" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868">
       <c r="D868" s="4"/>
     </row>
-    <row r="869" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869">
       <c r="D869" s="4"/>
     </row>
-    <row r="870" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870">
       <c r="D870" s="4"/>
     </row>
-    <row r="871" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871">
       <c r="D871" s="4"/>
     </row>
-    <row r="872" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872">
       <c r="D872" s="4"/>
     </row>
-    <row r="873" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873">
       <c r="D873" s="4"/>
     </row>
-    <row r="874" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874">
       <c r="D874" s="4"/>
     </row>
-    <row r="875" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875">
       <c r="D875" s="4"/>
     </row>
-    <row r="876" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876">
       <c r="D876" s="4"/>
     </row>
-    <row r="877" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877">
       <c r="D877" s="4"/>
     </row>
-    <row r="878" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878">
       <c r="D878" s="4"/>
     </row>
-    <row r="879" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879">
       <c r="D879" s="4"/>
     </row>
-    <row r="880" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880">
       <c r="D880" s="4"/>
     </row>
-    <row r="881" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881">
       <c r="D881" s="4"/>
     </row>
-    <row r="882" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882">
       <c r="D882" s="4"/>
     </row>
-    <row r="883" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883">
       <c r="D883" s="4"/>
     </row>
-    <row r="884" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884">
       <c r="D884" s="4"/>
     </row>
-    <row r="885" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885">
       <c r="D885" s="4"/>
     </row>
-    <row r="886" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886">
       <c r="D886" s="4"/>
     </row>
-    <row r="887" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887">
       <c r="D887" s="4"/>
     </row>
-    <row r="888" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888">
       <c r="D888" s="4"/>
     </row>
-    <row r="889" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889">
       <c r="D889" s="4"/>
     </row>
-    <row r="890" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890">
       <c r="D890" s="4"/>
     </row>
-    <row r="891" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891">
       <c r="D891" s="4"/>
     </row>
-    <row r="892" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892">
       <c r="D892" s="4"/>
     </row>
-    <row r="893" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893">
       <c r="D893" s="4"/>
     </row>
-    <row r="894" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894">
       <c r="D894" s="4"/>
     </row>
-    <row r="895" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895">
       <c r="D895" s="4"/>
     </row>
-    <row r="896" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896">
       <c r="D896" s="4"/>
     </row>
-    <row r="897" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897">
       <c r="D897" s="4"/>
     </row>
-    <row r="898" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898">
       <c r="D898" s="4"/>
     </row>
-    <row r="899" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899">
       <c r="D899" s="4"/>
     </row>
-    <row r="900" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900">
       <c r="D900" s="4"/>
     </row>
-    <row r="901" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901">
       <c r="D901" s="4"/>
     </row>
-    <row r="902" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902">
       <c r="D902" s="4"/>
     </row>
-    <row r="903" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903">
       <c r="D903" s="4"/>
     </row>
-    <row r="904" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904">
       <c r="D904" s="4"/>
     </row>
-    <row r="905" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905">
       <c r="D905" s="4"/>
     </row>
-    <row r="906" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906">
       <c r="D906" s="4"/>
     </row>
-    <row r="907" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907">
       <c r="D907" s="4"/>
     </row>
-    <row r="908" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908">
       <c r="D908" s="4"/>
     </row>
-    <row r="909" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909">
       <c r="D909" s="4"/>
     </row>
-    <row r="910" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910">
       <c r="D910" s="4"/>
     </row>
-    <row r="911" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911">
       <c r="D911" s="4"/>
     </row>
-    <row r="912" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912">
       <c r="D912" s="4"/>
     </row>
-    <row r="913" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913">
       <c r="D913" s="4"/>
     </row>
-    <row r="914" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914">
       <c r="D914" s="4"/>
     </row>
-    <row r="915" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915">
       <c r="D915" s="4"/>
     </row>
-    <row r="916" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916">
       <c r="D916" s="4"/>
     </row>
-    <row r="917" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917">
       <c r="D917" s="4"/>
     </row>
-    <row r="918" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918">
       <c r="D918" s="4"/>
     </row>
-    <row r="919" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919">
       <c r="D919" s="4"/>
     </row>
-    <row r="920" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920">
       <c r="D920" s="4"/>
     </row>
-    <row r="921" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921">
       <c r="D921" s="4"/>
     </row>
-    <row r="922" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922">
       <c r="D922" s="4"/>
     </row>
-    <row r="923" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923">
       <c r="D923" s="4"/>
     </row>
-    <row r="924" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924">
       <c r="D924" s="4"/>
     </row>
-    <row r="925" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925">
       <c r="D925" s="4"/>
     </row>
-    <row r="926" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926">
       <c r="D926" s="4"/>
     </row>
-    <row r="927" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927">
       <c r="D927" s="4"/>
     </row>
-    <row r="928" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928">
       <c r="D928" s="4"/>
     </row>
-    <row r="929" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929">
       <c r="D929" s="4"/>
     </row>
-    <row r="930" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930">
       <c r="D930" s="4"/>
     </row>
-    <row r="931" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931">
       <c r="D931" s="4"/>
     </row>
-    <row r="932" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932">
       <c r="D932" s="4"/>
     </row>
-    <row r="933" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933">
       <c r="D933" s="4"/>
     </row>
-    <row r="934" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934">
       <c r="D934" s="4"/>
     </row>
-    <row r="935" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935">
       <c r="D935" s="4"/>
     </row>
-    <row r="936" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936">
       <c r="D936" s="4"/>
     </row>
-    <row r="937" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937">
       <c r="D937" s="4"/>
     </row>
-    <row r="938" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938">
       <c r="D938" s="4"/>
     </row>
-    <row r="939" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939">
       <c r="D939" s="4"/>
     </row>
-    <row r="940" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940">
       <c r="D940" s="4"/>
     </row>
-    <row r="941" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941">
       <c r="D941" s="4"/>
     </row>
-    <row r="942" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942">
       <c r="D942" s="4"/>
     </row>
-    <row r="943" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943">
       <c r="D943" s="4"/>
     </row>
-    <row r="944" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944">
       <c r="D944" s="4"/>
     </row>
-    <row r="945" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945">
       <c r="D945" s="4"/>
     </row>
-    <row r="946" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946">
       <c r="D946" s="4"/>
     </row>
-    <row r="947" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947">
       <c r="D947" s="4"/>
     </row>
-    <row r="948" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948">
       <c r="D948" s="4"/>
     </row>
-    <row r="949" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949">
       <c r="D949" s="4"/>
     </row>
-    <row r="950" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950">
       <c r="D950" s="4"/>
     </row>
-    <row r="951" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951">
       <c r="D951" s="4"/>
     </row>
-    <row r="952" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952">
       <c r="D952" s="4"/>
     </row>
-    <row r="953" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953">
       <c r="D953" s="4"/>
     </row>
-    <row r="954" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954">
       <c r="D954" s="4"/>
     </row>
-    <row r="955" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955">
       <c r="D955" s="4"/>
     </row>
-    <row r="956" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956">
       <c r="D956" s="4"/>
     </row>
-    <row r="957" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957">
       <c r="D957" s="4"/>
     </row>
-    <row r="958" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958">
       <c r="D958" s="4"/>
     </row>
-    <row r="959" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959">
       <c r="D959" s="4"/>
     </row>
-    <row r="960" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960">
       <c r="D960" s="4"/>
     </row>
-    <row r="961" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961">
       <c r="D961" s="4"/>
     </row>
-    <row r="962" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962">
       <c r="D962" s="4"/>
     </row>
-    <row r="963" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963">
       <c r="D963" s="4"/>
     </row>
-    <row r="964" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964">
       <c r="D964" s="4"/>
     </row>
-    <row r="965" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965">
       <c r="D965" s="4"/>
     </row>
-    <row r="966" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966">
       <c r="D966" s="4"/>
     </row>
-    <row r="967" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967">
       <c r="D967" s="4"/>
     </row>
-    <row r="968" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968">
       <c r="D968" s="4"/>
     </row>
-    <row r="969" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969">
       <c r="D969" s="4"/>
     </row>
-    <row r="970" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970">
       <c r="D970" s="4"/>
     </row>
-    <row r="971" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971">
       <c r="D971" s="4"/>
     </row>
-    <row r="972" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972">
       <c r="D972" s="4"/>
     </row>
-    <row r="973" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973">
       <c r="D973" s="4"/>
     </row>
-    <row r="974" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974">
       <c r="D974" s="4"/>
     </row>
-    <row r="975" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975">
       <c r="D975" s="4"/>
     </row>
-    <row r="976" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976">
       <c r="D976" s="4"/>
     </row>
-    <row r="977" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977">
       <c r="D977" s="4"/>
     </row>
-    <row r="978" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978">
       <c r="D978" s="4"/>
     </row>
-    <row r="979" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979">
       <c r="D979" s="4"/>
     </row>
-    <row r="980" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980">
       <c r="D980" s="4"/>
     </row>
-    <row r="981" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981">
       <c r="D981" s="4"/>
     </row>
-    <row r="982" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982">
       <c r="D982" s="4"/>
     </row>
-    <row r="983" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983">
       <c r="D983" s="4"/>
     </row>
-    <row r="984" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984">
       <c r="D984" s="4"/>
     </row>
-    <row r="985" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985">
       <c r="D985" s="4"/>
     </row>
-    <row r="986" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986">
       <c r="D986" s="4"/>
     </row>
-    <row r="987" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987">
       <c r="D987" s="4"/>
     </row>
-    <row r="988" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988">
       <c r="D988" s="4"/>
     </row>
-    <row r="989" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989">
       <c r="D989" s="4"/>
     </row>
-    <row r="990" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990">
       <c r="D990" s="4"/>
     </row>
-    <row r="991" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991">
       <c r="D991" s="4"/>
     </row>
-    <row r="992" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992">
       <c r="D992" s="4"/>
     </row>
-    <row r="993" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993">
       <c r="D993" s="4"/>
     </row>
-    <row r="994" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994">
       <c r="D994" s="4"/>
     </row>
-    <row r="995" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995">
       <c r="D995" s="4"/>
     </row>
-    <row r="996" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996">
       <c r="D996" s="4"/>
     </row>
-    <row r="997" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997">
       <c r="D997" s="4"/>
     </row>
-    <row r="998" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998">
       <c r="D998" s="4"/>
     </row>
-    <row r="999" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999">
       <c r="D999" s="4"/>
     </row>
-    <row r="1000" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000">
       <c r="D1000" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B20">
       <formula1>"Динар,Даниил"</formula1>
     </dataValidation>
@@ -4331,1114 +4512,1266 @@
       <formula1>"Высокий,Средний,Низкий"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="57" customWidth="1"/>
+    <col customWidth="1" min="3" max="3" width="61.13"/>
+    <col customWidth="1" min="4" max="4" width="18.13"/>
+    <col customWidth="1" min="5" max="5" width="16.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" ht="99.0" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="C19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="D19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Ожидает проверки,Пройдено,Не пройдено"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="16.63"/>
+    <col customWidth="1" min="7" max="7" width="22.25"/>
+    <col customWidth="1" min="8" max="8" width="35.5"/>
+    <col customWidth="1" min="9" max="9" width="22.38"/>
+    <col customWidth="1" min="10" max="10" width="15.75"/>
+    <col customWidth="1" min="11" max="11" width="57.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="H11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="15.38"/>
+    <col customWidth="1" min="5" max="5" width="14.75"/>
+    <col customWidth="1" min="10" max="10" width="43.5"/>
+    <col customWidth="1" min="11" max="11" width="19.5"/>
+    <col customWidth="1" min="12" max="12" width="18.75"/>
+    <col customWidth="1" min="13" max="13" width="20.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>148</v>
+      <c r="I1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>5</v>
@@ -5447,39 +5780,39 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>5</v>
@@ -5488,39 +5821,39 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>5</v>
@@ -5529,39 +5862,39 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>5</v>
@@ -5570,39 +5903,39 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>5</v>
@@ -5611,39 +5944,39 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>5</v>
@@ -5652,401 +5985,575 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
@@ -6059,14 +6566,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2">
       <formula1>"Open,In Progress,Ready For Check,Closed,Rejected,Deferred,Reopened"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G19">
       <formula1>"Open,Вариант 2"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="242">
   <si>
     <t>Название</t>
   </si>
@@ -870,9 +870,6 @@
     <t>localhost:8081</t>
   </si>
   <si>
-    <t>Mar 5, 2025</t>
-  </si>
-  <si>
     <t>1. Находясь на странице Задать вопрос.
 2. В поле Ваша почта ввести что-нибудь.</t>
   </si>
@@ -883,9 +880,6 @@
     <t>localhost:8082</t>
   </si>
   <si>
-    <t>Mar 5, 2026</t>
-  </si>
-  <si>
     <t>1. Находясь на странице Задать вопрос.
 2. Поле Тема обращения подписно не правильно.</t>
   </si>
@@ -907,9 +901,6 @@
   </si>
   <si>
     <t>localhost:8083</t>
-  </si>
-  <si>
-    <t>Mar 5, 2027</t>
   </si>
   <si>
     <t>1. Находясь на странице Задать вопрос.
@@ -6008,7 +5999,7 @@
         <v>175</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>184</v>
@@ -6049,7 +6040,7 @@
         <v>175</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>184</v>
@@ -6090,7 +6081,7 @@
         <v>230</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>184</v>
@@ -6108,7 +6099,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>217</v>
@@ -6125,13 +6116,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>184</v>
@@ -6149,13 +6140,13 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>189</v>
@@ -6166,13 +6157,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>184</v>
@@ -6190,7 +6181,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>217</v>
@@ -6207,13 +6198,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>184</v>
@@ -6231,7 +6222,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>217</v>

--- a/Чек лист.xlsx
+++ b/Чек лист.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="243">
   <si>
     <t>Название</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>localhost:8081</t>
+  </si>
+  <si>
+    <t>Дниил</t>
   </si>
   <si>
     <t>1. Находясь на странице Задать вопрос.
@@ -6093,13 +6096,13 @@
         <v>185</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>217</v>
@@ -6116,10 +6119,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>155</v>
@@ -6134,19 +6137,19 @@
         <v>185</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>189</v>
@@ -6157,10 +6160,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>155</v>
@@ -6175,13 +6178,13 @@
         <v>185</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>217</v>
@@ -6198,10 +6201,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>155</v>
@@ -6216,13 +6219,13 @@
         <v>185</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>217</v>
